--- a/Kode/Server2/Logs/lora_node2/2020-05-27.xlsx
+++ b/Kode/Server2/Logs/lora_node2/2020-05-27.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F286"/>
+  <dimension ref="A1:F481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1683,7 +1683,7 @@
         <v>0.03</v>
       </c>
       <c r="F66" t="n">
-        <v>7.043999999999998e-05</v>
+        <v>0.07043999999999999</v>
       </c>
     </row>
     <row r="67">
@@ -1703,7 +1703,7 @@
         <v>0.06</v>
       </c>
       <c r="F67" t="n">
-        <v>0.00013632</v>
+        <v>0.13632</v>
       </c>
     </row>
     <row r="68">
@@ -1723,7 +1723,7 @@
         <v>0.09</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0002052</v>
+        <v>0.2052</v>
       </c>
     </row>
     <row r="69">
@@ -1743,7 +1743,7 @@
         <v>0.165</v>
       </c>
       <c r="F69" t="n">
-        <v>0.00037158</v>
+        <v>0.37158</v>
       </c>
     </row>
     <row r="70">
@@ -1763,7 +1763,7 @@
         <v>0.18</v>
       </c>
       <c r="F70" t="n">
-        <v>0.00040464</v>
+        <v>0.40464</v>
       </c>
     </row>
     <row r="71">
@@ -1783,7 +1783,7 @@
         <v>0.195</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0004352400000000001</v>
+        <v>0.4352400000000001</v>
       </c>
     </row>
     <row r="72">
@@ -1803,7 +1803,7 @@
         <v>0.255</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0005803800000000001</v>
+        <v>0.5803800000000001</v>
       </c>
     </row>
     <row r="73">
@@ -1823,7 +1823,7 @@
         <v>0.27</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0006112800000000002</v>
+        <v>0.6112800000000002</v>
       </c>
     </row>
     <row r="74">
@@ -1843,7 +1843,7 @@
         <v>0.3</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0006432</v>
+        <v>0.6432</v>
       </c>
     </row>
     <row r="75">
@@ -1863,7 +1863,7 @@
         <v>0.345</v>
       </c>
       <c r="F75" t="n">
-        <v>0.00075072</v>
+        <v>0.7507199999999999</v>
       </c>
     </row>
     <row r="76">
@@ -1883,7 +1883,7 @@
         <v>0.375</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0008475000000000002</v>
+        <v>0.8475000000000001</v>
       </c>
     </row>
     <row r="77">
@@ -1903,7 +1903,7 @@
         <v>0.39</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0008658000000000001</v>
+        <v>0.8658000000000001</v>
       </c>
     </row>
     <row r="78">
@@ -1923,7 +1923,7 @@
         <v>0.42</v>
       </c>
       <c r="F78" t="n">
-        <v>0.00091896</v>
+        <v>0.91896</v>
       </c>
     </row>
     <row r="79">
@@ -1943,7 +1943,7 @@
         <v>0.435</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0009709200000000001</v>
+        <v>0.9709200000000001</v>
       </c>
     </row>
     <row r="80">
@@ -1963,7 +1963,7 @@
         <v>0.465</v>
       </c>
       <c r="F80" t="n">
-        <v>0.00104346</v>
+        <v>1.04346</v>
       </c>
     </row>
     <row r="81">
@@ -1983,7 +1983,7 @@
         <v>0.48</v>
       </c>
       <c r="F81" t="n">
-        <v>0.00105024</v>
+        <v>1.05024</v>
       </c>
     </row>
     <row r="82">
@@ -2003,7 +2003,7 @@
         <v>0.48</v>
       </c>
       <c r="F82" t="n">
-        <v>0.00107328</v>
+        <v>1.07328</v>
       </c>
     </row>
     <row r="83">
@@ -2023,7 +2023,7 @@
         <v>0.51</v>
       </c>
       <c r="F83" t="n">
-        <v>0.001122</v>
+        <v>1.122</v>
       </c>
     </row>
     <row r="84">
@@ -2043,7 +2043,7 @@
         <v>0.615</v>
       </c>
       <c r="F84" t="n">
-        <v>0.00132594</v>
+        <v>1.32594</v>
       </c>
     </row>
     <row r="85">
@@ -2063,7 +2063,7 @@
         <v>0.63</v>
       </c>
       <c r="F85" t="n">
-        <v>0.00134316</v>
+        <v>1.34316</v>
       </c>
     </row>
     <row r="86">
@@ -2083,7 +2083,7 @@
         <v>0.72</v>
       </c>
       <c r="F86" t="n">
-        <v>0.00157824</v>
+        <v>1.57824</v>
       </c>
     </row>
     <row r="87">
@@ -2103,7 +2103,7 @@
         <v>0.735</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0016023</v>
+        <v>1.6023</v>
       </c>
     </row>
     <row r="88">
@@ -2123,7 +2123,7 @@
         <v>0.75</v>
       </c>
       <c r="F88" t="n">
-        <v>0.001617</v>
+        <v>1.617</v>
       </c>
     </row>
     <row r="89">
@@ -2143,7 +2143,7 @@
         <v>0.78</v>
       </c>
       <c r="F89" t="n">
-        <v>0.00177216</v>
+        <v>1.77216</v>
       </c>
     </row>
     <row r="90">
@@ -2163,7 +2163,7 @@
         <v>0.7949999999999999</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0017172</v>
+        <v>1.7172</v>
       </c>
     </row>
     <row r="91">
@@ -2183,7 +2183,7 @@
         <v>0.8099999999999999</v>
       </c>
       <c r="F91" t="n">
-        <v>0.00178524</v>
+        <v>1.78524</v>
       </c>
     </row>
     <row r="92">
@@ -2203,7 +2203,7 @@
         <v>1.2</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0025008</v>
+        <v>2.5008</v>
       </c>
     </row>
     <row r="93">
@@ -2223,7 +2223,7 @@
         <v>1.275</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0025602</v>
+        <v>2.5602</v>
       </c>
     </row>
     <row r="94">
@@ -2243,7 +2243,7 @@
         <v>1.29</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0026832</v>
+        <v>2.6832</v>
       </c>
     </row>
     <row r="95">
@@ -2263,7 +2263,7 @@
         <v>1.425</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0025935</v>
+        <v>2.5935</v>
       </c>
     </row>
     <row r="96">
@@ -2283,7 +2283,7 @@
         <v>1.635</v>
       </c>
       <c r="F96" t="n">
-        <v>0.00311304</v>
+        <v>3.11304</v>
       </c>
     </row>
     <row r="97">
@@ -2303,7 +2303,7 @@
         <v>1.725</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0033327</v>
+        <v>3.3327</v>
       </c>
     </row>
     <row r="98">
@@ -2323,7 +2323,7 @@
         <v>1.86</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0036828</v>
+        <v>3.6828</v>
       </c>
     </row>
     <row r="99">
@@ -2343,7 +2343,7 @@
         <v>1.935</v>
       </c>
       <c r="F99" t="n">
-        <v>0.00388548</v>
+        <v>3.88548</v>
       </c>
     </row>
     <row r="100">
@@ -2363,7 +2363,7 @@
         <v>1.83</v>
       </c>
       <c r="F100" t="n">
-        <v>0.00360876</v>
+        <v>3.60876</v>
       </c>
     </row>
     <row r="101">
@@ -2383,7 +2383,7 @@
         <v>1.68</v>
       </c>
       <c r="F101" t="n">
-        <v>0.00321888</v>
+        <v>3.21888</v>
       </c>
     </row>
     <row r="102">
@@ -2403,7 +2403,7 @@
         <v>1.725</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0033258</v>
+        <v>3.3258</v>
       </c>
     </row>
     <row r="103">
@@ -2423,7 +2423,7 @@
         <v>3.165</v>
       </c>
       <c r="F103" t="n">
-        <v>0.006963000000000001</v>
+        <v>6.963000000000001</v>
       </c>
     </row>
     <row r="104">
@@ -2443,7 +2443,7 @@
         <v>2.52</v>
       </c>
       <c r="F104" t="n">
-        <v>0.005392800000000001</v>
+        <v>5.392800000000001</v>
       </c>
     </row>
     <row r="105">
@@ -2463,7 +2463,7 @@
         <v>2.55</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0054468</v>
+        <v>5.4468</v>
       </c>
     </row>
     <row r="106">
@@ -2483,7 +2483,7 @@
         <v>2.685</v>
       </c>
       <c r="F106" t="n">
-        <v>0.005788860000000001</v>
+        <v>5.788860000000001</v>
       </c>
     </row>
     <row r="107">
@@ -2503,7 +2503,7 @@
         <v>2.865</v>
       </c>
       <c r="F107" t="n">
-        <v>0.006211319999999999</v>
+        <v>6.21132</v>
       </c>
     </row>
     <row r="108">
@@ -2523,7 +2523,7 @@
         <v>3.12</v>
       </c>
       <c r="F108" t="n">
-        <v>0.006876480000000001</v>
+        <v>6.876480000000001</v>
       </c>
     </row>
     <row r="109">
@@ -2543,7 +2543,7 @@
         <v>3.87</v>
       </c>
       <c r="F109" t="n">
-        <v>0.008544959999999999</v>
+        <v>8.54496</v>
       </c>
     </row>
     <row r="110">
@@ -2563,7 +2563,7 @@
         <v>4.649999999999999</v>
       </c>
       <c r="F110" t="n">
-        <v>0.010416</v>
+        <v>10.416</v>
       </c>
     </row>
     <row r="111">
@@ -2583,7 +2583,7 @@
         <v>4.89</v>
       </c>
       <c r="F111" t="n">
-        <v>0.01107096</v>
+        <v>11.07096</v>
       </c>
     </row>
     <row r="112">
@@ -2603,7 +2603,7 @@
         <v>5.22</v>
       </c>
       <c r="F112" t="n">
-        <v>0.01175544</v>
+        <v>11.75544</v>
       </c>
     </row>
     <row r="113">
@@ -2623,7 +2623,7 @@
         <v>4.605</v>
       </c>
       <c r="F113" t="n">
-        <v>0.0102231</v>
+        <v>10.2231</v>
       </c>
     </row>
     <row r="114">
@@ -2643,7 +2643,7 @@
         <v>5.115</v>
       </c>
       <c r="F114" t="n">
-        <v>0.01143714</v>
+        <v>11.43714</v>
       </c>
     </row>
     <row r="115">
@@ -2663,7 +2663,7 @@
         <v>5.325</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0118002</v>
+        <v>11.8002</v>
       </c>
     </row>
     <row r="116">
@@ -2683,7 +2683,7 @@
         <v>5.415</v>
       </c>
       <c r="F116" t="n">
-        <v>0.0121296</v>
+        <v>12.1296</v>
       </c>
     </row>
     <row r="117">
@@ -2703,7 +2703,7 @@
         <v>5.37</v>
       </c>
       <c r="F117" t="n">
-        <v>0.01196436</v>
+        <v>11.96436</v>
       </c>
     </row>
     <row r="118">
@@ -2723,7 +2723,7 @@
         <v>5.16</v>
       </c>
       <c r="F118" t="n">
-        <v>0.0114552</v>
+        <v>11.4552</v>
       </c>
     </row>
     <row r="119">
@@ -2743,7 +2743,7 @@
         <v>5.1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.0112608</v>
+        <v>11.2608</v>
       </c>
     </row>
     <row r="120">
@@ -2763,7 +2763,7 @@
         <v>5.475</v>
       </c>
       <c r="F120" t="n">
-        <v>0.0121764</v>
+        <v>12.1764</v>
       </c>
     </row>
     <row r="121">
@@ -2783,7 +2783,7 @@
         <v>5.46</v>
       </c>
       <c r="F121" t="n">
-        <v>0.01218672</v>
+        <v>12.18672</v>
       </c>
     </row>
     <row r="122">
@@ -2803,7 +2803,7 @@
         <v>5.399999999999999</v>
       </c>
       <c r="F122" t="n">
-        <v>0.0119664</v>
+        <v>11.9664</v>
       </c>
     </row>
     <row r="123">
@@ -2823,7 +2823,7 @@
         <v>5.76</v>
       </c>
       <c r="F123" t="n">
-        <v>0.01264896</v>
+        <v>12.64896</v>
       </c>
     </row>
     <row r="124">
@@ -2843,7 +2843,7 @@
         <v>5.73</v>
       </c>
       <c r="F124" t="n">
-        <v>0.01297272</v>
+        <v>12.97272</v>
       </c>
     </row>
     <row r="125">
@@ -2863,7 +2863,7 @@
         <v>5.37</v>
       </c>
       <c r="F125" t="n">
-        <v>0.01189992</v>
+        <v>11.89992</v>
       </c>
     </row>
     <row r="126">
@@ -2883,7 +2883,7 @@
         <v>4.62</v>
       </c>
       <c r="F126" t="n">
-        <v>0.01018248</v>
+        <v>10.18248</v>
       </c>
     </row>
     <row r="127">
@@ -2903,7 +2903,7 @@
         <v>4.185</v>
       </c>
       <c r="F127" t="n">
-        <v>0.0093744</v>
+        <v>9.3744</v>
       </c>
     </row>
     <row r="128">
@@ -2923,7 +2923,7 @@
         <v>4.109999999999999</v>
       </c>
       <c r="F128" t="n">
-        <v>0.009173519999999999</v>
+        <v>9.17352</v>
       </c>
     </row>
     <row r="129">
@@ -2943,7 +2943,7 @@
         <v>5.25</v>
       </c>
       <c r="F129" t="n">
-        <v>0.011697</v>
+        <v>11.697</v>
       </c>
     </row>
     <row r="130">
@@ -2963,7 +2963,7 @@
         <v>7.095</v>
       </c>
       <c r="F130" t="n">
-        <v>0.01569414</v>
+        <v>15.69414</v>
       </c>
     </row>
     <row r="131">
@@ -2983,7 +2983,7 @@
         <v>6.21</v>
       </c>
       <c r="F131" t="n">
-        <v>0.01356264</v>
+        <v>13.56264</v>
       </c>
     </row>
     <row r="132">
@@ -3003,7 +3003,7 @@
         <v>4.785</v>
       </c>
       <c r="F132" t="n">
-        <v>0.0106227</v>
+        <v>10.6227</v>
       </c>
     </row>
     <row r="133">
@@ -3023,7 +3023,7 @@
         <v>5.49</v>
       </c>
       <c r="F133" t="n">
-        <v>0.0119682</v>
+        <v>11.9682</v>
       </c>
     </row>
     <row r="134">
@@ -3043,7 +3043,7 @@
         <v>6.225</v>
       </c>
       <c r="F134" t="n">
-        <v>0.0136452</v>
+        <v>13.6452</v>
       </c>
     </row>
     <row r="135">
@@ -3063,7 +3063,7 @@
         <v>9.855</v>
       </c>
       <c r="F135" t="n">
-        <v>0.02140506</v>
+        <v>21.40506</v>
       </c>
     </row>
     <row r="136">
@@ -3083,7 +3083,7 @@
         <v>12.285</v>
       </c>
       <c r="F136" t="n">
-        <v>0.02712528000000001</v>
+        <v>27.12528000000001</v>
       </c>
     </row>
     <row r="137">
@@ -3103,7 +3103,7 @@
         <v>12.45</v>
       </c>
       <c r="F137" t="n">
-        <v>0.0275394</v>
+        <v>27.5394</v>
       </c>
     </row>
     <row r="138">
@@ -3123,7 +3123,7 @@
         <v>10.5</v>
       </c>
       <c r="F138" t="n">
-        <v>0.022932</v>
+        <v>22.932</v>
       </c>
     </row>
     <row r="139">
@@ -3143,7 +3143,7 @@
         <v>9.914999999999999</v>
       </c>
       <c r="F139" t="n">
-        <v>0.02157504</v>
+        <v>21.57504</v>
       </c>
     </row>
     <row r="140">
@@ -3163,7 +3163,7 @@
         <v>9.209999999999999</v>
       </c>
       <c r="F140" t="n">
-        <v>0.01996728</v>
+        <v>19.96728</v>
       </c>
     </row>
     <row r="141">
@@ -3183,7 +3183,7 @@
         <v>8.025</v>
       </c>
       <c r="F141" t="n">
-        <v>0.0173661</v>
+        <v>17.3661</v>
       </c>
     </row>
     <row r="142">
@@ -3203,7 +3203,7 @@
         <v>8.94</v>
       </c>
       <c r="F142" t="n">
-        <v>0.0193104</v>
+        <v>19.3104</v>
       </c>
     </row>
     <row r="143">
@@ -3223,7 +3223,7 @@
         <v>9.209999999999999</v>
       </c>
       <c r="F143" t="n">
-        <v>0.01996728</v>
+        <v>19.96728</v>
       </c>
     </row>
     <row r="144">
@@ -3243,7 +3243,7 @@
         <v>8.685</v>
       </c>
       <c r="F144" t="n">
-        <v>0.01872486</v>
+        <v>18.72486</v>
       </c>
     </row>
     <row r="145">
@@ -3263,7 +3263,7 @@
         <v>8.039999999999999</v>
       </c>
       <c r="F145" t="n">
-        <v>0.01739856</v>
+        <v>17.39856</v>
       </c>
     </row>
     <row r="146">
@@ -3283,7 +3283,7 @@
         <v>7.41</v>
       </c>
       <c r="F146" t="n">
-        <v>0.01621308</v>
+        <v>16.21308</v>
       </c>
     </row>
     <row r="147">
@@ -3303,7 +3303,7 @@
         <v>5.67</v>
       </c>
       <c r="F147" t="n">
-        <v>0.01251936</v>
+        <v>12.51936</v>
       </c>
     </row>
     <row r="148">
@@ -3323,7 +3323,7 @@
         <v>5.565</v>
       </c>
       <c r="F148" t="n">
-        <v>0.01239882</v>
+        <v>12.39882</v>
       </c>
     </row>
     <row r="149">
@@ -3343,7 +3343,7 @@
         <v>5.505</v>
       </c>
       <c r="F149" t="n">
-        <v>0.01237524</v>
+        <v>12.37524</v>
       </c>
     </row>
     <row r="150">
@@ -3363,7 +3363,7 @@
         <v>5.265</v>
       </c>
       <c r="F150" t="n">
-        <v>0.0117936</v>
+        <v>11.7936</v>
       </c>
     </row>
     <row r="151">
@@ -3383,7 +3383,7 @@
         <v>5.325</v>
       </c>
       <c r="F151" t="n">
-        <v>0.011715</v>
+        <v>11.715</v>
       </c>
     </row>
     <row r="152">
@@ -3403,7 +3403,7 @@
         <v>11.49</v>
       </c>
       <c r="F152" t="n">
-        <v>0.025278</v>
+        <v>25.278</v>
       </c>
     </row>
     <row r="153">
@@ -3423,7 +3423,7 @@
         <v>9.06</v>
       </c>
       <c r="F153" t="n">
-        <v>0.01960584</v>
+        <v>19.60584</v>
       </c>
     </row>
     <row r="154">
@@ -3443,7 +3443,7 @@
         <v>8.324999999999999</v>
       </c>
       <c r="F154" t="n">
-        <v>0.0179487</v>
+        <v>17.9487</v>
       </c>
     </row>
     <row r="155">
@@ -3463,7 +3463,7 @@
         <v>8.369999999999999</v>
       </c>
       <c r="F155" t="n">
-        <v>0.01804572</v>
+        <v>18.04572</v>
       </c>
     </row>
     <row r="156">
@@ -3483,7 +3483,7 @@
         <v>7.949999999999999</v>
       </c>
       <c r="F156" t="n">
-        <v>0.0172674</v>
+        <v>17.2674</v>
       </c>
     </row>
     <row r="157">
@@ -3503,7 +3503,7 @@
         <v>8.145</v>
       </c>
       <c r="F157" t="n">
-        <v>0.01752804</v>
+        <v>17.52804</v>
       </c>
     </row>
     <row r="158">
@@ -3523,7 +3523,7 @@
         <v>8.295</v>
       </c>
       <c r="F158" t="n">
-        <v>0.01788402</v>
+        <v>17.88402</v>
       </c>
     </row>
     <row r="159">
@@ -3543,7 +3543,7 @@
         <v>8.055</v>
       </c>
       <c r="F159" t="n">
-        <v>0.0173988</v>
+        <v>17.3988</v>
       </c>
     </row>
     <row r="160">
@@ -3563,7 +3563,7 @@
         <v>8.234999999999999</v>
       </c>
       <c r="F160" t="n">
-        <v>0.01775466</v>
+        <v>17.75466</v>
       </c>
     </row>
     <row r="161">
@@ -3583,7 +3583,7 @@
         <v>9.06</v>
       </c>
       <c r="F161" t="n">
-        <v>0.01960584</v>
+        <v>19.60584</v>
       </c>
     </row>
     <row r="162">
@@ -3603,7 +3603,7 @@
         <v>9.869999999999999</v>
       </c>
       <c r="F162" t="n">
-        <v>0.02147712</v>
+        <v>21.47712</v>
       </c>
     </row>
     <row r="163">
@@ -3623,7 +3623,7 @@
         <v>11.25</v>
       </c>
       <c r="F163" t="n">
-        <v>0.024705</v>
+        <v>24.705</v>
       </c>
     </row>
     <row r="164">
@@ -3643,7 +3643,7 @@
         <v>12.855</v>
       </c>
       <c r="F164" t="n">
-        <v>0.02843526</v>
+        <v>28.43526</v>
       </c>
     </row>
     <row r="165">
@@ -3663,7 +3663,7 @@
         <v>15.555</v>
       </c>
       <c r="F165" t="n">
-        <v>0.03378546</v>
+        <v>33.78546</v>
       </c>
     </row>
     <row r="166">
@@ -3683,7 +3683,7 @@
         <v>15.9</v>
       </c>
       <c r="F166" t="n">
-        <v>0.0344076</v>
+        <v>34.4076</v>
       </c>
     </row>
     <row r="167">
@@ -3703,7 +3703,7 @@
         <v>16.53</v>
       </c>
       <c r="F167" t="n">
-        <v>0.03577092</v>
+        <v>35.77092</v>
       </c>
     </row>
     <row r="168">
@@ -3723,7 +3723,7 @@
         <v>16.215</v>
       </c>
       <c r="F168" t="n">
-        <v>0.03495954</v>
+        <v>34.95954</v>
       </c>
     </row>
     <row r="169">
@@ -3743,7 +3743,7 @@
         <v>14.895</v>
       </c>
       <c r="F169" t="n">
-        <v>0.03181572000000001</v>
+        <v>31.81572000000001</v>
       </c>
     </row>
     <row r="170">
@@ -3763,7 +3763,7 @@
         <v>13.89</v>
       </c>
       <c r="F170" t="n">
-        <v>0.02928012</v>
+        <v>29.28012</v>
       </c>
     </row>
     <row r="171">
@@ -3783,7 +3783,7 @@
         <v>13.635</v>
       </c>
       <c r="F171" t="n">
-        <v>0.02896074</v>
+        <v>28.96074</v>
       </c>
     </row>
     <row r="172">
@@ -3803,7 +3803,7 @@
         <v>12.75</v>
       </c>
       <c r="F172" t="n">
-        <v>0.027336</v>
+        <v>27.336</v>
       </c>
     </row>
     <row r="173">
@@ -3823,7 +3823,7 @@
         <v>14.61</v>
       </c>
       <c r="F173" t="n">
-        <v>0.03173292</v>
+        <v>31.73292</v>
       </c>
     </row>
     <row r="174">
@@ -3843,7 +3843,7 @@
         <v>16.5</v>
       </c>
       <c r="F174" t="n">
-        <v>0.035442</v>
+        <v>35.442</v>
       </c>
     </row>
     <row r="175">
@@ -3863,7 +3863,7 @@
         <v>15.165</v>
       </c>
       <c r="F175" t="n">
-        <v>0.03263508</v>
+        <v>32.63507999999999</v>
       </c>
     </row>
     <row r="176">
@@ -3883,7 +3883,7 @@
         <v>14.115</v>
       </c>
       <c r="F176" t="n">
-        <v>0.02958504</v>
+        <v>29.58504</v>
       </c>
     </row>
     <row r="177">
@@ -3903,7 +3903,7 @@
         <v>12.87</v>
       </c>
       <c r="F177" t="n">
-        <v>0.02795364</v>
+        <v>27.95364</v>
       </c>
     </row>
     <row r="178">
@@ -3923,7 +3923,7 @@
         <v>11.325</v>
       </c>
       <c r="F178" t="n">
-        <v>0.0247791</v>
+        <v>24.7791</v>
       </c>
     </row>
     <row r="179">
@@ -3943,7 +3943,7 @@
         <v>11.025</v>
       </c>
       <c r="F179" t="n">
-        <v>0.0235053</v>
+        <v>23.5053</v>
       </c>
     </row>
     <row r="180">
@@ -3963,7 +3963,7 @@
         <v>11.13</v>
       </c>
       <c r="F180" t="n">
-        <v>0.02364012</v>
+        <v>23.64012</v>
       </c>
     </row>
     <row r="181">
@@ -3983,7 +3983,7 @@
         <v>11.655</v>
       </c>
       <c r="F181" t="n">
-        <v>0.0247086</v>
+        <v>24.7086</v>
       </c>
     </row>
     <row r="182">
@@ -4003,7 +4003,7 @@
         <v>11.64</v>
       </c>
       <c r="F182" t="n">
-        <v>0.02486304</v>
+        <v>24.86304</v>
       </c>
     </row>
     <row r="183">
@@ -4023,7 +4023,7 @@
         <v>10.725</v>
       </c>
       <c r="F183" t="n">
-        <v>0.0229944</v>
+        <v>22.9944</v>
       </c>
     </row>
     <row r="184">
@@ -4043,7 +4043,7 @@
         <v>10.845</v>
       </c>
       <c r="F184" t="n">
-        <v>0.02325168</v>
+        <v>23.25168</v>
       </c>
     </row>
     <row r="185">
@@ -4063,7 +4063,7 @@
         <v>11.01</v>
       </c>
       <c r="F185" t="n">
-        <v>0.02413392</v>
+        <v>24.13392</v>
       </c>
     </row>
     <row r="186">
@@ -4083,7 +4083,7 @@
         <v>11.145</v>
       </c>
       <c r="F186" t="n">
-        <v>0.0249648</v>
+        <v>24.9648</v>
       </c>
     </row>
     <row r="187">
@@ -4103,7 +4103,7 @@
         <v>11.145</v>
       </c>
       <c r="F187" t="n">
-        <v>0.0240732</v>
+        <v>24.0732</v>
       </c>
     </row>
     <row r="188">
@@ -4123,7 +4123,7 @@
         <v>10.815</v>
       </c>
       <c r="F188" t="n">
-        <v>0.0231441</v>
+        <v>23.1441</v>
       </c>
     </row>
     <row r="189">
@@ -4143,7 +4143,7 @@
         <v>10.32</v>
       </c>
       <c r="F189" t="n">
-        <v>0.02241504</v>
+        <v>22.41504</v>
       </c>
     </row>
     <row r="190">
@@ -4163,7 +4163,7 @@
         <v>9.629999999999999</v>
       </c>
       <c r="F190" t="n">
-        <v>0.02049264</v>
+        <v>20.49264</v>
       </c>
     </row>
     <row r="191">
@@ -4183,7 +4183,7 @@
         <v>8.07</v>
       </c>
       <c r="F191" t="n">
-        <v>0.01720524</v>
+        <v>17.20524</v>
       </c>
     </row>
     <row r="192">
@@ -4203,7 +4203,7 @@
         <v>7.949999999999999</v>
       </c>
       <c r="F192" t="n">
-        <v>0.0168858</v>
+        <v>16.8858</v>
       </c>
     </row>
     <row r="193">
@@ -4223,7 +4223,7 @@
         <v>7.845</v>
       </c>
       <c r="F193" t="n">
-        <v>0.01691382</v>
+        <v>16.91382</v>
       </c>
     </row>
     <row r="194">
@@ -4243,7 +4243,7 @@
         <v>7.29</v>
       </c>
       <c r="F194" t="n">
-        <v>0.01539648</v>
+        <v>15.39648</v>
       </c>
     </row>
     <row r="195">
@@ -4263,7 +4263,7 @@
         <v>7.199999999999999</v>
       </c>
       <c r="F195" t="n">
-        <v>0.0153792</v>
+        <v>15.3792</v>
       </c>
     </row>
     <row r="196">
@@ -4283,7 +4283,7 @@
         <v>7.425</v>
       </c>
       <c r="F196" t="n">
-        <v>0.0160974</v>
+        <v>16.0974</v>
       </c>
     </row>
     <row r="197">
@@ -4303,7 +4303,7 @@
         <v>7.725</v>
       </c>
       <c r="F197" t="n">
-        <v>0.0165933</v>
+        <v>16.5933</v>
       </c>
     </row>
     <row r="198">
@@ -4323,7 +4323,7 @@
         <v>7.935</v>
       </c>
       <c r="F198" t="n">
-        <v>0.0171396</v>
+        <v>17.1396</v>
       </c>
     </row>
     <row r="199">
@@ -4343,7 +4343,7 @@
         <v>7.92</v>
       </c>
       <c r="F199" t="n">
-        <v>0.01701216</v>
+        <v>17.01216</v>
       </c>
     </row>
     <row r="200">
@@ -4363,7 +4363,7 @@
         <v>8.324999999999999</v>
       </c>
       <c r="F200" t="n">
-        <v>0.0177822</v>
+        <v>17.7822</v>
       </c>
     </row>
     <row r="201">
@@ -4383,7 +4383,7 @@
         <v>8.924999999999999</v>
       </c>
       <c r="F201" t="n">
-        <v>0.018921</v>
+        <v>18.921</v>
       </c>
     </row>
     <row r="202">
@@ -4403,7 +4403,7 @@
         <v>8.895</v>
       </c>
       <c r="F202" t="n">
-        <v>0.01889298</v>
+        <v>18.89298</v>
       </c>
     </row>
     <row r="203">
@@ -4423,7 +4423,7 @@
         <v>9.029999999999999</v>
       </c>
       <c r="F203" t="n">
-        <v>0.0196854</v>
+        <v>19.6854</v>
       </c>
     </row>
     <row r="204">
@@ -4443,7 +4443,7 @@
         <v>10.08</v>
       </c>
       <c r="F204" t="n">
-        <v>0.02185344</v>
+        <v>21.85344</v>
       </c>
     </row>
     <row r="205">
@@ -4463,7 +4463,7 @@
         <v>10.35</v>
       </c>
       <c r="F205" t="n">
-        <v>0.0219834</v>
+        <v>21.9834</v>
       </c>
     </row>
     <row r="206">
@@ -4483,7 +4483,7 @@
         <v>10.335</v>
       </c>
       <c r="F206" t="n">
-        <v>0.02228226</v>
+        <v>22.28226</v>
       </c>
     </row>
     <row r="207">
@@ -4503,7 +4503,7 @@
         <v>10.185</v>
       </c>
       <c r="F207" t="n">
-        <v>0.02195886</v>
+        <v>21.95886</v>
       </c>
     </row>
     <row r="208">
@@ -4523,7 +4523,7 @@
         <v>10.005</v>
       </c>
       <c r="F208" t="n">
-        <v>0.02169084</v>
+        <v>21.69084</v>
       </c>
     </row>
     <row r="209">
@@ -4543,7 +4543,7 @@
         <v>9.9</v>
       </c>
       <c r="F209" t="n">
-        <v>0.0218196</v>
+        <v>21.8196</v>
       </c>
     </row>
     <row r="210">
@@ -4563,7 +4563,7 @@
         <v>9.9</v>
       </c>
       <c r="F210" t="n">
-        <v>0.021186</v>
+        <v>21.186</v>
       </c>
     </row>
     <row r="211">
@@ -4583,7 +4583,7 @@
         <v>9.959999999999999</v>
       </c>
       <c r="F211" t="n">
-        <v>0.02143392</v>
+        <v>21.43392</v>
       </c>
     </row>
     <row r="212">
@@ -4603,7 +4603,7 @@
         <v>10.485</v>
       </c>
       <c r="F212" t="n">
-        <v>0.02252178</v>
+        <v>22.52178</v>
       </c>
     </row>
     <row r="213">
@@ -4623,7 +4623,7 @@
         <v>9.855</v>
       </c>
       <c r="F213" t="n">
-        <v>0.0210897</v>
+        <v>21.0897</v>
       </c>
     </row>
     <row r="214">
@@ -4643,7 +4643,7 @@
         <v>9.705</v>
       </c>
       <c r="F214" t="n">
-        <v>0.02100162</v>
+        <v>21.00162</v>
       </c>
     </row>
     <row r="215">
@@ -4663,7 +4663,7 @@
         <v>10.53</v>
       </c>
       <c r="F215" t="n">
-        <v>0.02282904</v>
+        <v>22.82904</v>
       </c>
     </row>
     <row r="216">
@@ -4683,7 +4683,7 @@
         <v>10.74</v>
       </c>
       <c r="F216" t="n">
-        <v>0.02281176</v>
+        <v>22.81176</v>
       </c>
     </row>
     <row r="217">
@@ -4703,7 +4703,7 @@
         <v>11.04</v>
       </c>
       <c r="F217" t="n">
-        <v>0.02424384</v>
+        <v>24.24384</v>
       </c>
     </row>
     <row r="218">
@@ -4723,7 +4723,7 @@
         <v>12.09</v>
       </c>
       <c r="F218" t="n">
-        <v>0.02567916</v>
+        <v>25.67916</v>
       </c>
     </row>
     <row r="219">
@@ -4743,7 +4743,7 @@
         <v>10.92</v>
       </c>
       <c r="F219" t="n">
-        <v>0.02341248</v>
+        <v>23.41248</v>
       </c>
     </row>
     <row r="220">
@@ -4763,7 +4763,7 @@
         <v>12.525</v>
       </c>
       <c r="F220" t="n">
-        <v>0.0267534</v>
+        <v>26.7534</v>
       </c>
     </row>
     <row r="221">
@@ -4783,7 +4783,7 @@
         <v>11.46</v>
       </c>
       <c r="F221" t="n">
-        <v>0.02470776</v>
+        <v>24.70776</v>
       </c>
     </row>
     <row r="222">
@@ -4803,7 +4803,7 @@
         <v>10.485</v>
       </c>
       <c r="F222" t="n">
-        <v>0.02277342</v>
+        <v>22.77342</v>
       </c>
     </row>
     <row r="223">
@@ -4823,7 +4823,7 @@
         <v>10.485</v>
       </c>
       <c r="F223" t="n">
-        <v>0.02273148</v>
+        <v>22.73148</v>
       </c>
     </row>
     <row r="224">
@@ -4843,7 +4843,7 @@
         <v>11.91</v>
       </c>
       <c r="F224" t="n">
-        <v>0.0257256</v>
+        <v>25.7256</v>
       </c>
     </row>
     <row r="225">
@@ -4863,7 +4863,7 @@
         <v>10.575</v>
       </c>
       <c r="F225" t="n">
-        <v>0.0228843</v>
+        <v>22.8843</v>
       </c>
     </row>
     <row r="226">
@@ -4883,7 +4883,7 @@
         <v>9.254999999999999</v>
       </c>
       <c r="F226" t="n">
-        <v>0.0198057</v>
+        <v>19.8057</v>
       </c>
     </row>
     <row r="227">
@@ -4903,7 +4903,7 @@
         <v>10.23</v>
       </c>
       <c r="F227" t="n">
-        <v>0.0216876</v>
+        <v>21.6876</v>
       </c>
     </row>
     <row r="228">
@@ -4923,7 +4923,7 @@
         <v>9.42</v>
       </c>
       <c r="F228" t="n">
-        <v>0.02027184</v>
+        <v>20.27184</v>
       </c>
     </row>
     <row r="229">
@@ -4943,7 +4943,7 @@
         <v>8.609999999999999</v>
       </c>
       <c r="F229" t="n">
-        <v>0.01852872</v>
+        <v>18.52872</v>
       </c>
     </row>
     <row r="230">
@@ -4963,7 +4963,7 @@
         <v>9.42</v>
       </c>
       <c r="F230" t="n">
-        <v>0.02098776</v>
+        <v>20.98776</v>
       </c>
     </row>
     <row r="231">
@@ -4983,7 +4983,7 @@
         <v>9.764999999999999</v>
       </c>
       <c r="F231" t="n">
-        <v>0.02113146</v>
+        <v>21.13146</v>
       </c>
     </row>
     <row r="232">
@@ -5003,7 +5003,7 @@
         <v>10.365</v>
       </c>
       <c r="F232" t="n">
-        <v>0.02184942</v>
+        <v>21.84942</v>
       </c>
     </row>
     <row r="233">
@@ -5023,7 +5023,7 @@
         <v>11.895</v>
       </c>
       <c r="F233" t="n">
-        <v>0.0252174</v>
+        <v>25.2174</v>
       </c>
     </row>
     <row r="234">
@@ -5043,7 +5043,7 @@
         <v>19.875</v>
       </c>
       <c r="F234" t="n">
-        <v>0.042612</v>
+        <v>42.61199999999999</v>
       </c>
     </row>
     <row r="235">
@@ -5063,7 +5063,7 @@
         <v>25.095</v>
       </c>
       <c r="F235" t="n">
-        <v>0.05410482</v>
+        <v>54.10482</v>
       </c>
     </row>
     <row r="236">
@@ -5083,7 +5083,7 @@
         <v>27.615</v>
       </c>
       <c r="F236" t="n">
-        <v>0.05953794</v>
+        <v>59.53794</v>
       </c>
     </row>
     <row r="237">
@@ -5103,7 +5103,7 @@
         <v>26.13</v>
       </c>
       <c r="F237" t="n">
-        <v>0.05664984000000001</v>
+        <v>56.64984</v>
       </c>
     </row>
     <row r="238">
@@ -5123,7 +5123,7 @@
         <v>30.93</v>
       </c>
       <c r="F238" t="n">
-        <v>0.0668088</v>
+        <v>66.80880000000001</v>
       </c>
     </row>
     <row r="239">
@@ -5143,7 +5143,7 @@
         <v>35.925</v>
       </c>
       <c r="F239" t="n">
-        <v>0.0780291</v>
+        <v>78.0291</v>
       </c>
     </row>
     <row r="240">
@@ -5163,7 +5163,7 @@
         <v>33.57</v>
       </c>
       <c r="F240" t="n">
-        <v>0.07277976000000001</v>
+        <v>72.77976000000001</v>
       </c>
     </row>
     <row r="241">
@@ -5183,7 +5183,7 @@
         <v>41.325</v>
       </c>
       <c r="F241" t="n">
-        <v>0.08975789999999999</v>
+        <v>89.75789999999999</v>
       </c>
     </row>
     <row r="242">
@@ -5203,7 +5203,7 @@
         <v>44.7</v>
       </c>
       <c r="F242" t="n">
-        <v>0.097446</v>
+        <v>97.446</v>
       </c>
     </row>
     <row r="243">
@@ -5223,7 +5223,7 @@
         <v>36.93</v>
       </c>
       <c r="F243" t="n">
-        <v>0.08006423999999999</v>
+        <v>80.06424</v>
       </c>
     </row>
     <row r="244">
@@ -5243,7 +5243,7 @@
         <v>35.79</v>
       </c>
       <c r="F244" t="n">
-        <v>0.07759272</v>
+        <v>77.59272</v>
       </c>
     </row>
     <row r="245">
@@ -5263,7 +5263,7 @@
         <v>35.685</v>
       </c>
       <c r="F245" t="n">
-        <v>0.07736507999999999</v>
+        <v>77.36507999999999</v>
       </c>
     </row>
     <row r="246">
@@ -5283,7 +5283,7 @@
         <v>33.51</v>
       </c>
       <c r="F246" t="n">
-        <v>0.07251564000000001</v>
+        <v>72.51564</v>
       </c>
     </row>
     <row r="247">
@@ -5303,7 +5303,7 @@
         <v>30.3</v>
       </c>
       <c r="F247" t="n">
-        <v>0.06544799999999999</v>
+        <v>65.44799999999999</v>
       </c>
     </row>
     <row r="248">
@@ -5323,7 +5323,7 @@
         <v>27.69</v>
       </c>
       <c r="F248" t="n">
-        <v>0.05992116</v>
+        <v>59.92116</v>
       </c>
     </row>
     <row r="249">
@@ -5343,7 +5343,7 @@
         <v>26.355</v>
       </c>
       <c r="F249" t="n">
-        <v>0.05755932</v>
+        <v>57.55932</v>
       </c>
     </row>
     <row r="250">
@@ -5363,7 +5363,7 @@
         <v>26.565</v>
       </c>
       <c r="F250" t="n">
-        <v>0.05706162</v>
+        <v>57.06162</v>
       </c>
     </row>
     <row r="251">
@@ -5383,7 +5383,7 @@
         <v>34.125</v>
       </c>
       <c r="F251" t="n">
-        <v>0.07398300000000001</v>
+        <v>73.983</v>
       </c>
     </row>
     <row r="252">
@@ -5403,7 +5403,7 @@
         <v>37.515</v>
       </c>
       <c r="F252" t="n">
-        <v>0.08148258000000001</v>
+        <v>81.48258000000001</v>
       </c>
     </row>
     <row r="253">
@@ -5423,7 +5423,7 @@
         <v>40.62</v>
       </c>
       <c r="F253" t="n">
-        <v>0.08822664000000001</v>
+        <v>88.22664</v>
       </c>
     </row>
     <row r="254">
@@ -5443,7 +5443,7 @@
         <v>43.875</v>
       </c>
       <c r="F254" t="n">
-        <v>0.09529650000000001</v>
+        <v>95.29650000000001</v>
       </c>
     </row>
     <row r="255">
@@ -5463,7 +5463,7 @@
         <v>45.06</v>
       </c>
       <c r="F255" t="n">
-        <v>0.09823080000000001</v>
+        <v>98.2308</v>
       </c>
     </row>
     <row r="256">
@@ -5483,7 +5483,7 @@
         <v>44.01</v>
       </c>
       <c r="F256" t="n">
-        <v>0.09558972</v>
+        <v>95.58972</v>
       </c>
     </row>
     <row r="257">
@@ -5503,7 +5503,7 @@
         <v>41.79</v>
       </c>
       <c r="F257" t="n">
-        <v>0.09076788000000001</v>
+        <v>90.76788000000001</v>
       </c>
     </row>
     <row r="258">
@@ -5523,7 +5523,7 @@
         <v>42.61499999999999</v>
       </c>
       <c r="F258" t="n">
-        <v>0.09238932</v>
+        <v>92.38932</v>
       </c>
     </row>
     <row r="259">
@@ -5543,7 +5543,7 @@
         <v>59.09999999999999</v>
       </c>
       <c r="F259" t="n">
-        <v>0.1295472</v>
+        <v>129.5472</v>
       </c>
     </row>
     <row r="260">
@@ -5563,7 +5563,7 @@
         <v>59.565</v>
       </c>
       <c r="F260" t="n">
-        <v>0.13056648</v>
+        <v>130.56648</v>
       </c>
     </row>
     <row r="261">
@@ -5583,7 +5583,7 @@
         <v>58.34999999999999</v>
       </c>
       <c r="F261" t="n">
-        <v>0.1279032</v>
+        <v>127.9032</v>
       </c>
     </row>
     <row r="262">
@@ -5603,7 +5603,7 @@
         <v>52.56</v>
       </c>
       <c r="F262" t="n">
-        <v>0.1145808</v>
+        <v>114.5808</v>
       </c>
     </row>
     <row r="263">
@@ -5623,7 +5623,7 @@
         <v>47.595</v>
       </c>
       <c r="F263" t="n">
-        <v>0.10337634</v>
+        <v>103.37634</v>
       </c>
     </row>
     <row r="264">
@@ -5643,7 +5643,7 @@
         <v>43.815</v>
       </c>
       <c r="F264" t="n">
-        <v>0.0955167</v>
+        <v>95.5167</v>
       </c>
     </row>
     <row r="265">
@@ -5663,7 +5663,7 @@
         <v>39.48</v>
       </c>
       <c r="F265" t="n">
-        <v>0.08575055999999999</v>
+        <v>85.75055999999999</v>
       </c>
     </row>
     <row r="266">
@@ -5683,7 +5683,7 @@
         <v>37.44</v>
       </c>
       <c r="F266" t="n">
-        <v>0.08131968000000001</v>
+        <v>81.31968000000001</v>
       </c>
     </row>
     <row r="267">
@@ -5703,7 +5703,7 @@
         <v>36.195</v>
       </c>
       <c r="F267" t="n">
-        <v>0.07847076000000001</v>
+        <v>78.47076000000001</v>
       </c>
     </row>
     <row r="268">
@@ -5723,7 +5723,7 @@
         <v>35.985</v>
       </c>
       <c r="F268" t="n">
-        <v>0.07801548000000001</v>
+        <v>78.01548000000001</v>
       </c>
     </row>
     <row r="269">
@@ -5743,7 +5743,7 @@
         <v>35.25</v>
       </c>
       <c r="F269" t="n">
-        <v>0.07642200000000002</v>
+        <v>76.42200000000001</v>
       </c>
     </row>
     <row r="270">
@@ -5763,7 +5763,7 @@
         <v>41.73</v>
       </c>
       <c r="F270" t="n">
-        <v>0.09063755999999999</v>
+        <v>90.63755999999999</v>
       </c>
     </row>
     <row r="271">
@@ -5783,7 +5783,7 @@
         <v>52.47</v>
       </c>
       <c r="F271" t="n">
-        <v>0.1143846</v>
+        <v>114.3846</v>
       </c>
     </row>
     <row r="272">
@@ -5803,7 +5803,7 @@
         <v>57.825</v>
       </c>
       <c r="F272" t="n">
-        <v>0.1265211</v>
+        <v>126.5211</v>
       </c>
     </row>
     <row r="273">
@@ -5823,7 +5823,7 @@
         <v>64.395</v>
       </c>
       <c r="F273" t="n">
-        <v>0.14063868</v>
+        <v>140.63868</v>
       </c>
     </row>
     <row r="274">
@@ -5843,7 +5843,7 @@
         <v>64.215</v>
       </c>
       <c r="F274" t="n">
-        <v>0.14101614</v>
+        <v>141.01614</v>
       </c>
     </row>
     <row r="275">
@@ -5863,7 +5863,7 @@
         <v>62.535</v>
       </c>
       <c r="F275" t="n">
-        <v>0.13682658</v>
+        <v>136.82658</v>
       </c>
     </row>
     <row r="276">
@@ -5883,7 +5883,7 @@
         <v>56.625</v>
       </c>
       <c r="F276" t="n">
-        <v>0.1238955</v>
+        <v>123.8955</v>
       </c>
     </row>
     <row r="277">
@@ -5903,7 +5903,7 @@
         <v>54.81</v>
       </c>
       <c r="F277" t="n">
-        <v>0.11904732</v>
+        <v>119.04732</v>
       </c>
     </row>
     <row r="278">
@@ -5923,7 +5923,7 @@
         <v>47.565</v>
       </c>
       <c r="F278" t="n">
-        <v>0.10312092</v>
+        <v>103.12092</v>
       </c>
     </row>
     <row r="279">
@@ -5943,7 +5943,7 @@
         <v>47.775</v>
       </c>
       <c r="F279" t="n">
-        <v>0.1041495</v>
+        <v>104.1495</v>
       </c>
     </row>
     <row r="280">
@@ -5963,7 +5963,7 @@
         <v>49.755</v>
       </c>
       <c r="F280" t="n">
-        <v>0.10866492</v>
+        <v>108.66492</v>
       </c>
     </row>
     <row r="281">
@@ -5983,7 +5983,7 @@
         <v>49.65</v>
       </c>
       <c r="F281" t="n">
-        <v>0.1080384</v>
+        <v>108.0384</v>
       </c>
     </row>
     <row r="282">
@@ -6003,7 +6003,7 @@
         <v>49.35</v>
       </c>
       <c r="F282" t="n">
-        <v>0.1077804</v>
+        <v>107.7804</v>
       </c>
     </row>
     <row r="283">
@@ -6023,7 +6023,7 @@
         <v>49.77</v>
       </c>
       <c r="F283" t="n">
-        <v>0.10909584</v>
+        <v>109.09584</v>
       </c>
     </row>
     <row r="284">
@@ -6043,7 +6043,7 @@
         <v>44.91</v>
       </c>
       <c r="F284" t="n">
-        <v>0.09808343999999999</v>
+        <v>98.08344</v>
       </c>
     </row>
     <row r="285">
@@ -6063,7 +6063,7 @@
         <v>43.02</v>
       </c>
       <c r="F285" t="n">
-        <v>0.09378359999999999</v>
+        <v>93.78359999999999</v>
       </c>
     </row>
     <row r="286">
@@ -6083,7 +6083,3907 @@
         <v>44.55</v>
       </c>
       <c r="F286" t="n">
-        <v>0.0967626</v>
+        <v>96.76260000000001</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>68</v>
+      </c>
+      <c r="B287" s="1" t="n">
+        <v>0.4494848145138889</v>
+      </c>
+      <c r="C287" t="n">
+        <v>96</v>
+      </c>
+      <c r="D287" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E287" t="n">
+        <v>46.605</v>
+      </c>
+      <c r="F287" t="n">
+        <v>101.5989</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>69</v>
+      </c>
+      <c r="B288" s="1" t="n">
+        <v>0.4501785537268519</v>
+      </c>
+      <c r="C288" t="n">
+        <v>96</v>
+      </c>
+      <c r="D288" t="n">
+        <v>2.176</v>
+      </c>
+      <c r="E288" t="n">
+        <v>46.32</v>
+      </c>
+      <c r="F288" t="n">
+        <v>100.79232</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>70</v>
+      </c>
+      <c r="B289" s="1" t="n">
+        <v>0.4508816677199074</v>
+      </c>
+      <c r="C289" t="n">
+        <v>96</v>
+      </c>
+      <c r="D289" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E289" t="n">
+        <v>44.58</v>
+      </c>
+      <c r="F289" t="n">
+        <v>97.1844</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>71</v>
+      </c>
+      <c r="B290" s="1" t="n">
+        <v>0.4515651329398149</v>
+      </c>
+      <c r="C290" t="n">
+        <v>96</v>
+      </c>
+      <c r="D290" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="E290" t="n">
+        <v>42.23999999999999</v>
+      </c>
+      <c r="F290" t="n">
+        <v>91.74527999999999</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>73</v>
+      </c>
+      <c r="B291" s="1" t="n">
+        <v>0.4529547480092592</v>
+      </c>
+      <c r="C291" t="n">
+        <v>96</v>
+      </c>
+      <c r="D291" t="n">
+        <v>2.176</v>
+      </c>
+      <c r="E291" t="n">
+        <v>41.31</v>
+      </c>
+      <c r="F291" t="n">
+        <v>89.89055999999999</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>74</v>
+      </c>
+      <c r="B292" s="1" t="n">
+        <v>0.4536498848495371</v>
+      </c>
+      <c r="C292" t="n">
+        <v>96</v>
+      </c>
+      <c r="D292" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="E292" t="n">
+        <v>38.895</v>
+      </c>
+      <c r="F292" t="n">
+        <v>84.47994</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>75</v>
+      </c>
+      <c r="B293" s="1" t="n">
+        <v>0.4543422740509259</v>
+      </c>
+      <c r="C293" t="n">
+        <v>96</v>
+      </c>
+      <c r="D293" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="E293" t="n">
+        <v>39.36</v>
+      </c>
+      <c r="F293" t="n">
+        <v>85.48992</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>77</v>
+      </c>
+      <c r="B294" s="1" t="n">
+        <v>0.4557294534259259</v>
+      </c>
+      <c r="C294" t="n">
+        <v>96</v>
+      </c>
+      <c r="D294" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="E294" t="n">
+        <v>41.73</v>
+      </c>
+      <c r="F294" t="n">
+        <v>90.47064</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>78</v>
+      </c>
+      <c r="B295" s="1" t="n">
+        <v>0.4564231697222222</v>
+      </c>
+      <c r="C295" t="n">
+        <v>96</v>
+      </c>
+      <c r="D295" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="E295" t="n">
+        <v>40.62</v>
+      </c>
+      <c r="F295" t="n">
+        <v>88.22664</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>80</v>
+      </c>
+      <c r="B296" s="1" t="n">
+        <v>0.4578129687847222</v>
+      </c>
+      <c r="C296" t="n">
+        <v>96</v>
+      </c>
+      <c r="D296" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="E296" t="n">
+        <v>41.28</v>
+      </c>
+      <c r="F296" t="n">
+        <v>89.66016</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>81</v>
+      </c>
+      <c r="B297" s="1" t="n">
+        <v>0.4585066965740741</v>
+      </c>
+      <c r="C297" t="n">
+        <v>96</v>
+      </c>
+      <c r="D297" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="E297" t="n">
+        <v>43.845</v>
+      </c>
+      <c r="F297" t="n">
+        <v>95.23134</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>82</v>
+      </c>
+      <c r="B298" s="1" t="n">
+        <v>0.4592018335763889</v>
+      </c>
+      <c r="C298" t="n">
+        <v>96</v>
+      </c>
+      <c r="D298" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="E298" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="F298" t="n">
+        <v>99.04320000000001</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>84</v>
+      </c>
+      <c r="B299" s="1" t="n">
+        <v>0.4605875917939815</v>
+      </c>
+      <c r="C299" t="n">
+        <v>96</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2.192</v>
+      </c>
+      <c r="E299" t="n">
+        <v>53.22</v>
+      </c>
+      <c r="F299" t="n">
+        <v>116.65824</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>85</v>
+      </c>
+      <c r="B300" s="1" t="n">
+        <v>0.4612820004050926</v>
+      </c>
+      <c r="C300" t="n">
+        <v>96</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="E300" t="n">
+        <v>61.86</v>
+      </c>
+      <c r="F300" t="n">
+        <v>135.34968</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>86</v>
+      </c>
+      <c r="B301" s="1" t="n">
+        <v>0.4619785562152778</v>
+      </c>
+      <c r="C301" t="n">
+        <v>96</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="E301" t="n">
+        <v>68.94</v>
+      </c>
+      <c r="F301" t="n">
+        <v>150.84072</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>87</v>
+      </c>
+      <c r="B302" s="1" t="n">
+        <v>0.4626702864583333</v>
+      </c>
+      <c r="C302" t="n">
+        <v>96</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2.204</v>
+      </c>
+      <c r="E302" t="n">
+        <v>65.595</v>
+      </c>
+      <c r="F302" t="n">
+        <v>144.57138</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>88</v>
+      </c>
+      <c r="B303" s="1" t="n">
+        <v>0.4633666577662037</v>
+      </c>
+      <c r="C303" t="n">
+        <v>96</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2.192</v>
+      </c>
+      <c r="E303" t="n">
+        <v>53.73</v>
+      </c>
+      <c r="F303" t="n">
+        <v>117.77616</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>89</v>
+      </c>
+      <c r="B304" s="1" t="n">
+        <v>0.4640603956597222</v>
+      </c>
+      <c r="C304" t="n">
+        <v>96</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="E304" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="F304" t="n">
+        <v>107.514</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>90</v>
+      </c>
+      <c r="B305" s="1" t="n">
+        <v>0.4647542500694444</v>
+      </c>
+      <c r="C305" t="n">
+        <v>96</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2.176</v>
+      </c>
+      <c r="E305" t="n">
+        <v>49.575</v>
+      </c>
+      <c r="F305" t="n">
+        <v>107.8752</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>91</v>
+      </c>
+      <c r="B306" s="1" t="n">
+        <v>0.4654472843981481</v>
+      </c>
+      <c r="C306" t="n">
+        <v>96</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E306" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="F306" t="n">
+        <v>107.91</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>92</v>
+      </c>
+      <c r="B307" s="1" t="n">
+        <v>0.466141137650463</v>
+      </c>
+      <c r="C307" t="n">
+        <v>96</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2.176</v>
+      </c>
+      <c r="E307" t="n">
+        <v>50.235</v>
+      </c>
+      <c r="F307" t="n">
+        <v>109.31136</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>93</v>
+      </c>
+      <c r="B308" s="1" t="n">
+        <v>0.4668356842824074</v>
+      </c>
+      <c r="C308" t="n">
+        <v>96</v>
+      </c>
+      <c r="D308" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E308" t="n">
+        <v>49.665</v>
+      </c>
+      <c r="F308" t="n">
+        <v>108.2697</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>94</v>
+      </c>
+      <c r="B309" s="1" t="n">
+        <v>0.4675322397916666</v>
+      </c>
+      <c r="C309" t="n">
+        <v>96</v>
+      </c>
+      <c r="D309" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="E309" t="n">
+        <v>48.975</v>
+      </c>
+      <c r="F309" t="n">
+        <v>107.1573</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>96</v>
+      </c>
+      <c r="B310" s="1" t="n">
+        <v>0.4689178938541666</v>
+      </c>
+      <c r="C310" t="n">
+        <v>96</v>
+      </c>
+      <c r="D310" t="n">
+        <v>2.184</v>
+      </c>
+      <c r="E310" t="n">
+        <v>50.94</v>
+      </c>
+      <c r="F310" t="n">
+        <v>111.25296</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>97</v>
+      </c>
+      <c r="B311" s="1" t="n">
+        <v>0.4696119197916667</v>
+      </c>
+      <c r="C311" t="n">
+        <v>96</v>
+      </c>
+      <c r="D311" t="n">
+        <v>2.176</v>
+      </c>
+      <c r="E311" t="n">
+        <v>51.54</v>
+      </c>
+      <c r="F311" t="n">
+        <v>112.15104</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>98</v>
+      </c>
+      <c r="B312" s="1" t="n">
+        <v>0.4703090477199074</v>
+      </c>
+      <c r="C312" t="n">
+        <v>96</v>
+      </c>
+      <c r="D312" t="n">
+        <v>2.184</v>
+      </c>
+      <c r="E312" t="n">
+        <v>50.04</v>
+      </c>
+      <c r="F312" t="n">
+        <v>109.28736</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>101</v>
+      </c>
+      <c r="B313" s="1" t="n">
+        <v>0.4723886917824074</v>
+      </c>
+      <c r="C313" t="n">
+        <v>96</v>
+      </c>
+      <c r="D313" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="E313" t="n">
+        <v>45.18</v>
+      </c>
+      <c r="F313" t="n">
+        <v>98.13096</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>102</v>
+      </c>
+      <c r="B314" s="1" t="n">
+        <v>0.4730827303935186</v>
+      </c>
+      <c r="C314" t="n">
+        <v>96</v>
+      </c>
+      <c r="D314" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="E314" t="n">
+        <v>39.915</v>
+      </c>
+      <c r="F314" t="n">
+        <v>86.53572</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>103</v>
+      </c>
+      <c r="B315" s="1" t="n">
+        <v>0.4737803228125</v>
+      </c>
+      <c r="C315" t="n">
+        <v>96</v>
+      </c>
+      <c r="D315" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="E315" t="n">
+        <v>34.575</v>
+      </c>
+      <c r="F315" t="n">
+        <v>75.09689999999999</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>105</v>
+      </c>
+      <c r="B316" s="1" t="n">
+        <v>0.4751679131597222</v>
+      </c>
+      <c r="C316" t="n">
+        <v>96</v>
+      </c>
+      <c r="D316" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E316" t="n">
+        <v>26.955</v>
+      </c>
+      <c r="F316" t="n">
+        <v>58.7619</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>106</v>
+      </c>
+      <c r="B317" s="1" t="n">
+        <v>0.4758620321296296</v>
+      </c>
+      <c r="C317" t="n">
+        <v>96</v>
+      </c>
+      <c r="D317" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="E317" t="n">
+        <v>25.455</v>
+      </c>
+      <c r="F317" t="n">
+        <v>55.28826</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>107</v>
+      </c>
+      <c r="B318" s="1" t="n">
+        <v>0.4765530675810186</v>
+      </c>
+      <c r="C318" t="n">
+        <v>96</v>
+      </c>
+      <c r="D318" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="E318" t="n">
+        <v>24.09</v>
+      </c>
+      <c r="F318" t="n">
+        <v>52.22712000000001</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>112</v>
+      </c>
+      <c r="B319" s="1" t="n">
+        <v>0.4800239632638889</v>
+      </c>
+      <c r="C319" t="n">
+        <v>96</v>
+      </c>
+      <c r="D319" t="n">
+        <v>2.156</v>
+      </c>
+      <c r="E319" t="n">
+        <v>22.71</v>
+      </c>
+      <c r="F319" t="n">
+        <v>48.96276</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>113</v>
+      </c>
+      <c r="B320" s="1" t="n">
+        <v>0.4807183015972222</v>
+      </c>
+      <c r="C320" t="n">
+        <v>96</v>
+      </c>
+      <c r="D320" t="n">
+        <v>2.152</v>
+      </c>
+      <c r="E320" t="n">
+        <v>23.325</v>
+      </c>
+      <c r="F320" t="n">
+        <v>50.1954</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>114</v>
+      </c>
+      <c r="B321" s="1" t="n">
+        <v>0.4814123620023149</v>
+      </c>
+      <c r="C321" t="n">
+        <v>96</v>
+      </c>
+      <c r="D321" t="n">
+        <v>2.152</v>
+      </c>
+      <c r="E321" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="F321" t="n">
+        <v>49.38840000000001</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>115</v>
+      </c>
+      <c r="B322" s="1" t="n">
+        <v>0.4821057653009259</v>
+      </c>
+      <c r="C322" t="n">
+        <v>96</v>
+      </c>
+      <c r="D322" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="E322" t="n">
+        <v>22.08</v>
+      </c>
+      <c r="F322" t="n">
+        <v>47.86944</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>116</v>
+      </c>
+      <c r="B323" s="1" t="n">
+        <v>0.4828004372800926</v>
+      </c>
+      <c r="C323" t="n">
+        <v>96</v>
+      </c>
+      <c r="D323" t="n">
+        <v>2.148</v>
+      </c>
+      <c r="E323" t="n">
+        <v>21.375</v>
+      </c>
+      <c r="F323" t="n">
+        <v>45.91350000000001</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>118</v>
+      </c>
+      <c r="B324" s="1" t="n">
+        <v>0.4841894752199074</v>
+      </c>
+      <c r="C324" t="n">
+        <v>96</v>
+      </c>
+      <c r="D324" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="E324" t="n">
+        <v>21.795</v>
+      </c>
+      <c r="F324" t="n">
+        <v>47.25156</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>119</v>
+      </c>
+      <c r="B325" s="1" t="n">
+        <v>0.4848836928009259</v>
+      </c>
+      <c r="C325" t="n">
+        <v>96</v>
+      </c>
+      <c r="D325" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="E325" t="n">
+        <v>24.12</v>
+      </c>
+      <c r="F325" t="n">
+        <v>52.38864</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>120</v>
+      </c>
+      <c r="B326" s="1" t="n">
+        <v>0.4855766040162037</v>
+      </c>
+      <c r="C326" t="n">
+        <v>96</v>
+      </c>
+      <c r="D326" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="E326" t="n">
+        <v>27.24</v>
+      </c>
+      <c r="F326" t="n">
+        <v>58.8384</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>124</v>
+      </c>
+      <c r="B327" s="1" t="n">
+        <v>0.4883528630208333</v>
+      </c>
+      <c r="C327" t="n">
+        <v>96</v>
+      </c>
+      <c r="D327" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="E327" t="n">
+        <v>37.05</v>
+      </c>
+      <c r="F327" t="n">
+        <v>80.4726</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>126</v>
+      </c>
+      <c r="B328" s="1" t="n">
+        <v>0.4897407782175927</v>
+      </c>
+      <c r="C328" t="n">
+        <v>96</v>
+      </c>
+      <c r="D328" t="n">
+        <v>2.184</v>
+      </c>
+      <c r="E328" t="n">
+        <v>46.62</v>
+      </c>
+      <c r="F328" t="n">
+        <v>101.81808</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>128</v>
+      </c>
+      <c r="B329" s="1" t="n">
+        <v>0.4911287858912037</v>
+      </c>
+      <c r="C329" t="n">
+        <v>96</v>
+      </c>
+      <c r="D329" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="E329" t="n">
+        <v>46.36499999999999</v>
+      </c>
+      <c r="F329" t="n">
+        <v>100.70478</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>131</v>
+      </c>
+      <c r="B330" s="1" t="n">
+        <v>0.4932123225115741</v>
+      </c>
+      <c r="C330" t="n">
+        <v>96</v>
+      </c>
+      <c r="D330" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="E330" t="n">
+        <v>61.005</v>
+      </c>
+      <c r="F330" t="n">
+        <v>133.47894</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>132</v>
+      </c>
+      <c r="B331" s="1" t="n">
+        <v>0.4939062834953704</v>
+      </c>
+      <c r="C331" t="n">
+        <v>96</v>
+      </c>
+      <c r="D331" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="E331" t="n">
+        <v>56.025</v>
+      </c>
+      <c r="F331" t="n">
+        <v>122.5827</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>133</v>
+      </c>
+      <c r="B332" s="1" t="n">
+        <v>0.4946029268981481</v>
+      </c>
+      <c r="C332" t="n">
+        <v>96</v>
+      </c>
+      <c r="D332" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="E332" t="n">
+        <v>52.65</v>
+      </c>
+      <c r="F332" t="n">
+        <v>115.1982</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>134</v>
+      </c>
+      <c r="B333" s="1" t="n">
+        <v>0.4952944163541667</v>
+      </c>
+      <c r="C333" t="n">
+        <v>96</v>
+      </c>
+      <c r="D333" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="E333" t="n">
+        <v>51.45</v>
+      </c>
+      <c r="F333" t="n">
+        <v>111.7494</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>135</v>
+      </c>
+      <c r="B334" s="1" t="n">
+        <v>0.4959911149305555</v>
+      </c>
+      <c r="C334" t="n">
+        <v>96</v>
+      </c>
+      <c r="D334" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E334" t="n">
+        <v>51.255</v>
+      </c>
+      <c r="F334" t="n">
+        <v>111.7359</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>136</v>
+      </c>
+      <c r="B335" s="1" t="n">
+        <v>0.4966824272337963</v>
+      </c>
+      <c r="C335" t="n">
+        <v>96</v>
+      </c>
+      <c r="D335" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="E335" t="n">
+        <v>55.73999999999999</v>
+      </c>
+      <c r="F335" t="n">
+        <v>121.95912</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>137</v>
+      </c>
+      <c r="B336" s="1" t="n">
+        <v>0.4973769508217593</v>
+      </c>
+      <c r="C336" t="n">
+        <v>96</v>
+      </c>
+      <c r="D336" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="E336" t="n">
+        <v>60.63</v>
+      </c>
+      <c r="F336" t="n">
+        <v>132.65844</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>138</v>
+      </c>
+      <c r="B337" s="1" t="n">
+        <v>0.4980703040856482</v>
+      </c>
+      <c r="C337" t="n">
+        <v>96</v>
+      </c>
+      <c r="D337" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="E337" t="n">
+        <v>63.165</v>
+      </c>
+      <c r="F337" t="n">
+        <v>138.20502</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>139</v>
+      </c>
+      <c r="B338" s="1" t="n">
+        <v>0.4987673595949074</v>
+      </c>
+      <c r="C338" t="n">
+        <v>96</v>
+      </c>
+      <c r="D338" t="n">
+        <v>2.192</v>
+      </c>
+      <c r="E338" t="n">
+        <v>65.145</v>
+      </c>
+      <c r="F338" t="n">
+        <v>142.79784</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>140</v>
+      </c>
+      <c r="B339" s="1" t="n">
+        <v>0.4994588321643518</v>
+      </c>
+      <c r="C339" t="n">
+        <v>96</v>
+      </c>
+      <c r="D339" t="n">
+        <v>2.204</v>
+      </c>
+      <c r="E339" t="n">
+        <v>70.25999999999999</v>
+      </c>
+      <c r="F339" t="n">
+        <v>154.85304</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>143</v>
+      </c>
+      <c r="B340" s="1" t="n">
+        <v>0.5015412492708333</v>
+      </c>
+      <c r="C340" t="n">
+        <v>96</v>
+      </c>
+      <c r="D340" t="n">
+        <v>2.192</v>
+      </c>
+      <c r="E340" t="n">
+        <v>66.42</v>
+      </c>
+      <c r="F340" t="n">
+        <v>145.59264</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>144</v>
+      </c>
+      <c r="B341" s="1" t="n">
+        <v>0.5022381448495371</v>
+      </c>
+      <c r="C341" t="n">
+        <v>96</v>
+      </c>
+      <c r="D341" t="n">
+        <v>2.176</v>
+      </c>
+      <c r="E341" t="n">
+        <v>43.665</v>
+      </c>
+      <c r="F341" t="n">
+        <v>95.01504</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>147</v>
+      </c>
+      <c r="B342" s="1" t="n">
+        <v>0.5043163977893519</v>
+      </c>
+      <c r="C342" t="n">
+        <v>96</v>
+      </c>
+      <c r="D342" t="n">
+        <v>2.148</v>
+      </c>
+      <c r="E342" t="n">
+        <v>14.67</v>
+      </c>
+      <c r="F342" t="n">
+        <v>31.51116</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>148</v>
+      </c>
+      <c r="B343" s="1" t="n">
+        <v>0.5050114698263889</v>
+      </c>
+      <c r="C343" t="n">
+        <v>96</v>
+      </c>
+      <c r="D343" t="n">
+        <v>2.112</v>
+      </c>
+      <c r="E343" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="F343" t="n">
+        <v>26.48448</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>149</v>
+      </c>
+      <c r="B344" s="1" t="n">
+        <v>0.5057051171412037</v>
+      </c>
+      <c r="C344" t="n">
+        <v>96</v>
+      </c>
+      <c r="D344" t="n">
+        <v>2.104</v>
+      </c>
+      <c r="E344" t="n">
+        <v>10.785</v>
+      </c>
+      <c r="F344" t="n">
+        <v>22.69164</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>150</v>
+      </c>
+      <c r="B345" s="1" t="n">
+        <v>0.5064002933564815</v>
+      </c>
+      <c r="C345" t="n">
+        <v>96</v>
+      </c>
+      <c r="D345" t="n">
+        <v>2.136</v>
+      </c>
+      <c r="E345" t="n">
+        <v>7.529999999999999</v>
+      </c>
+      <c r="F345" t="n">
+        <v>16.08408</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>152</v>
+      </c>
+      <c r="B346" s="1" t="n">
+        <v>0.5077884079166667</v>
+      </c>
+      <c r="C346" t="n">
+        <v>96</v>
+      </c>
+      <c r="D346" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="E346" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="F346" t="n">
+        <v>19.31688</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>154</v>
+      </c>
+      <c r="B347" s="1" t="n">
+        <v>0.5091766774305556</v>
+      </c>
+      <c r="C347" t="n">
+        <v>96</v>
+      </c>
+      <c r="D347" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="E347" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="F347" t="n">
+        <v>25.8084</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>156</v>
+      </c>
+      <c r="B348" s="1" t="n">
+        <v>0.5105637139583333</v>
+      </c>
+      <c r="C348" t="n">
+        <v>96</v>
+      </c>
+      <c r="D348" t="n">
+        <v>2.104</v>
+      </c>
+      <c r="E348" t="n">
+        <v>11.265</v>
+      </c>
+      <c r="F348" t="n">
+        <v>23.70156</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>158</v>
+      </c>
+      <c r="B349" s="1" t="n">
+        <v>0.5119533856828704</v>
+      </c>
+      <c r="C349" t="n">
+        <v>96</v>
+      </c>
+      <c r="D349" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="E349" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="F349" t="n">
+        <v>26.91108</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>162</v>
+      </c>
+      <c r="B350" s="1" t="n">
+        <v>0.5147288462731481</v>
+      </c>
+      <c r="C350" t="n">
+        <v>96</v>
+      </c>
+      <c r="D350" t="n">
+        <v>2.136</v>
+      </c>
+      <c r="E350" t="n">
+        <v>14.655</v>
+      </c>
+      <c r="F350" t="n">
+        <v>31.30308</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>163</v>
+      </c>
+      <c r="B351" s="1" t="n">
+        <v>0.5154231639699074</v>
+      </c>
+      <c r="C351" t="n">
+        <v>96</v>
+      </c>
+      <c r="D351" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="E351" t="n">
+        <v>15.195</v>
+      </c>
+      <c r="F351" t="n">
+        <v>32.8212</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>164</v>
+      </c>
+      <c r="B352" s="1" t="n">
+        <v>0.5161175351967593</v>
+      </c>
+      <c r="C352" t="n">
+        <v>96</v>
+      </c>
+      <c r="D352" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="E352" t="n">
+        <v>15.915</v>
+      </c>
+      <c r="F352" t="n">
+        <v>34.50372</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>165</v>
+      </c>
+      <c r="B353" s="1" t="n">
+        <v>0.5168119901273148</v>
+      </c>
+      <c r="C353" t="n">
+        <v>96</v>
+      </c>
+      <c r="D353" t="n">
+        <v>2.148</v>
+      </c>
+      <c r="E353" t="n">
+        <v>16.485</v>
+      </c>
+      <c r="F353" t="n">
+        <v>35.40977999999999</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>167</v>
+      </c>
+      <c r="B354" s="1" t="n">
+        <v>0.5181993395717592</v>
+      </c>
+      <c r="C354" t="n">
+        <v>96</v>
+      </c>
+      <c r="D354" t="n">
+        <v>2.192</v>
+      </c>
+      <c r="E354" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="F354" t="n">
+        <v>35.1816</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>170</v>
+      </c>
+      <c r="B355" s="1" t="n">
+        <v>0.5202820438310185</v>
+      </c>
+      <c r="C355" t="n">
+        <v>96</v>
+      </c>
+      <c r="D355" t="n">
+        <v>2.116</v>
+      </c>
+      <c r="E355" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="F355" t="n">
+        <v>28.69296</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>174</v>
+      </c>
+      <c r="B356" s="1" t="n">
+        <v>0.5230587603240741</v>
+      </c>
+      <c r="C356" t="n">
+        <v>96</v>
+      </c>
+      <c r="D356" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="E356" t="n">
+        <v>14.34</v>
+      </c>
+      <c r="F356" t="n">
+        <v>31.37592</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>176</v>
+      </c>
+      <c r="B357" s="1" t="n">
+        <v>0.5244496303125</v>
+      </c>
+      <c r="C357" t="n">
+        <v>96</v>
+      </c>
+      <c r="D357" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="E357" t="n">
+        <v>17.79</v>
+      </c>
+      <c r="F357" t="n">
+        <v>38.4264</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>177</v>
+      </c>
+      <c r="B358" s="1" t="n">
+        <v>0.525141365462963</v>
+      </c>
+      <c r="C358" t="n">
+        <v>96</v>
+      </c>
+      <c r="D358" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="E358" t="n">
+        <v>19.785</v>
+      </c>
+      <c r="F358" t="n">
+        <v>42.73560000000001</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>180</v>
+      </c>
+      <c r="B359" s="1" t="n">
+        <v>0.5272238339930556</v>
+      </c>
+      <c r="C359" t="n">
+        <v>96</v>
+      </c>
+      <c r="D359" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="E359" t="n">
+        <v>23.76</v>
+      </c>
+      <c r="F359" t="n">
+        <v>50.8464</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>181</v>
+      </c>
+      <c r="B360" s="1" t="n">
+        <v>0.5279165274537038</v>
+      </c>
+      <c r="C360" t="n">
+        <v>96</v>
+      </c>
+      <c r="D360" t="n">
+        <v>2.148</v>
+      </c>
+      <c r="E360" t="n">
+        <v>25.08</v>
+      </c>
+      <c r="F360" t="n">
+        <v>53.87184</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>182</v>
+      </c>
+      <c r="B361" s="1" t="n">
+        <v>0.5286107562384259</v>
+      </c>
+      <c r="C361" t="n">
+        <v>96</v>
+      </c>
+      <c r="D361" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="E361" t="n">
+        <v>26.205</v>
+      </c>
+      <c r="F361" t="n">
+        <v>56.6028</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>183</v>
+      </c>
+      <c r="B362" s="1" t="n">
+        <v>0.5293052734722222</v>
+      </c>
+      <c r="C362" t="n">
+        <v>96</v>
+      </c>
+      <c r="D362" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="E362" t="n">
+        <v>28.245</v>
+      </c>
+      <c r="F362" t="n">
+        <v>61.23515999999999</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>184</v>
+      </c>
+      <c r="B363" s="1" t="n">
+        <v>0.5300005983333334</v>
+      </c>
+      <c r="C363" t="n">
+        <v>96</v>
+      </c>
+      <c r="D363" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="E363" t="n">
+        <v>31.74</v>
+      </c>
+      <c r="F363" t="n">
+        <v>68.93928</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>185</v>
+      </c>
+      <c r="B364" s="1" t="n">
+        <v>0.5306936720138888</v>
+      </c>
+      <c r="C364" t="n">
+        <v>96</v>
+      </c>
+      <c r="D364" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="E364" t="n">
+        <v>36.465</v>
+      </c>
+      <c r="F364" t="n">
+        <v>79.05611999999999</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>186</v>
+      </c>
+      <c r="B365" s="1" t="n">
+        <v>0.5313906601273148</v>
+      </c>
+      <c r="C365" t="n">
+        <v>96</v>
+      </c>
+      <c r="D365" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="E365" t="n">
+        <v>39.975</v>
+      </c>
+      <c r="F365" t="n">
+        <v>86.6658</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>188</v>
+      </c>
+      <c r="B366" s="1" t="n">
+        <v>0.5327754694097222</v>
+      </c>
+      <c r="C366" t="n">
+        <v>96</v>
+      </c>
+      <c r="D366" t="n">
+        <v>2.176</v>
+      </c>
+      <c r="E366" t="n">
+        <v>40.305</v>
+      </c>
+      <c r="F366" t="n">
+        <v>87.70368000000001</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>189</v>
+      </c>
+      <c r="B367" s="1" t="n">
+        <v>0.5334695594560185</v>
+      </c>
+      <c r="C367" t="n">
+        <v>96</v>
+      </c>
+      <c r="D367" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="E367" t="n">
+        <v>37.71</v>
+      </c>
+      <c r="F367" t="n">
+        <v>81.90612</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>191</v>
+      </c>
+      <c r="B368" s="1" t="n">
+        <v>0.5348579460879629</v>
+      </c>
+      <c r="C368" t="n">
+        <v>96</v>
+      </c>
+      <c r="D368" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="E368" t="n">
+        <v>35.49</v>
+      </c>
+      <c r="F368" t="n">
+        <v>76.94232000000001</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>192</v>
+      </c>
+      <c r="B369" s="1" t="n">
+        <v>0.5355522777777778</v>
+      </c>
+      <c r="C369" t="n">
+        <v>96</v>
+      </c>
+      <c r="D369" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="E369" t="n">
+        <v>34.845</v>
+      </c>
+      <c r="F369" t="n">
+        <v>75.54396</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>193</v>
+      </c>
+      <c r="B370" s="1" t="n">
+        <v>0.536246610162037</v>
+      </c>
+      <c r="C370" t="n">
+        <v>96</v>
+      </c>
+      <c r="D370" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="E370" t="n">
+        <v>35.01</v>
+      </c>
+      <c r="F370" t="n">
+        <v>75.90168</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>199</v>
+      </c>
+      <c r="B371" s="1" t="n">
+        <v>0.5404099812731481</v>
+      </c>
+      <c r="C371" t="n">
+        <v>96</v>
+      </c>
+      <c r="D371" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="E371" t="n">
+        <v>40.365</v>
+      </c>
+      <c r="F371" t="n">
+        <v>87.51132000000001</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>200</v>
+      </c>
+      <c r="B372" s="1" t="n">
+        <v>0.5411053520023148</v>
+      </c>
+      <c r="C372" t="n">
+        <v>96</v>
+      </c>
+      <c r="D372" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="E372" t="n">
+        <v>40.785</v>
+      </c>
+      <c r="F372" t="n">
+        <v>88.58502</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>202</v>
+      </c>
+      <c r="B373" s="1" t="n">
+        <v>0.542493564849537</v>
+      </c>
+      <c r="C373" t="n">
+        <v>96</v>
+      </c>
+      <c r="D373" t="n">
+        <v>2.184</v>
+      </c>
+      <c r="E373" t="n">
+        <v>43.92</v>
+      </c>
+      <c r="F373" t="n">
+        <v>95.92128000000001</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>204</v>
+      </c>
+      <c r="B374" s="1" t="n">
+        <v>0.5438813299652778</v>
+      </c>
+      <c r="C374" t="n">
+        <v>96</v>
+      </c>
+      <c r="D374" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="E374" t="n">
+        <v>43.245</v>
+      </c>
+      <c r="F374" t="n">
+        <v>94.62006</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>206</v>
+      </c>
+      <c r="B375" s="1" t="n">
+        <v>0.5452706057407407</v>
+      </c>
+      <c r="C375" t="n">
+        <v>96</v>
+      </c>
+      <c r="D375" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="E375" t="n">
+        <v>45.945</v>
+      </c>
+      <c r="F375" t="n">
+        <v>99.79254</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>207</v>
+      </c>
+      <c r="B376" s="1" t="n">
+        <v>0.5459657795949073</v>
+      </c>
+      <c r="C376" t="n">
+        <v>96</v>
+      </c>
+      <c r="D376" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="E376" t="n">
+        <v>48.06</v>
+      </c>
+      <c r="F376" t="n">
+        <v>103.8096</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>208</v>
+      </c>
+      <c r="B377" s="1" t="n">
+        <v>0.5466582980555555</v>
+      </c>
+      <c r="C377" t="n">
+        <v>96</v>
+      </c>
+      <c r="D377" t="n">
+        <v>2.176</v>
+      </c>
+      <c r="E377" t="n">
+        <v>47.955</v>
+      </c>
+      <c r="F377" t="n">
+        <v>104.35008</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>209</v>
+      </c>
+      <c r="B378" s="1" t="n">
+        <v>0.5473538551967593</v>
+      </c>
+      <c r="C378" t="n">
+        <v>96</v>
+      </c>
+      <c r="D378" t="n">
+        <v>2.212</v>
+      </c>
+      <c r="E378" t="n">
+        <v>47.565</v>
+      </c>
+      <c r="F378" t="n">
+        <v>105.21378</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>210</v>
+      </c>
+      <c r="B379" s="1" t="n">
+        <v>0.5480462932523148</v>
+      </c>
+      <c r="C379" t="n">
+        <v>96</v>
+      </c>
+      <c r="D379" t="n">
+        <v>2.176</v>
+      </c>
+      <c r="E379" t="n">
+        <v>46.35</v>
+      </c>
+      <c r="F379" t="n">
+        <v>100.8576</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>212</v>
+      </c>
+      <c r="B380" s="1" t="n">
+        <v>0.5494338602314816</v>
+      </c>
+      <c r="C380" t="n">
+        <v>96</v>
+      </c>
+      <c r="D380" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="E380" t="n">
+        <v>41.34</v>
+      </c>
+      <c r="F380" t="n">
+        <v>89.79048</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>214</v>
+      </c>
+      <c r="B381" s="1" t="n">
+        <v>0.5508228472569444</v>
+      </c>
+      <c r="C381" t="n">
+        <v>96</v>
+      </c>
+      <c r="D381" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="E381" t="n">
+        <v>32.625</v>
+      </c>
+      <c r="F381" t="n">
+        <v>70.47</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>215</v>
+      </c>
+      <c r="B382" s="1" t="n">
+        <v>0.5515176280555556</v>
+      </c>
+      <c r="C382" t="n">
+        <v>96</v>
+      </c>
+      <c r="D382" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="E382" t="n">
+        <v>30.795</v>
+      </c>
+      <c r="F382" t="n">
+        <v>66.76356</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>216</v>
+      </c>
+      <c r="B383" s="1" t="n">
+        <v>0.5522243564236111</v>
+      </c>
+      <c r="C383" t="n">
+        <v>96</v>
+      </c>
+      <c r="D383" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="E383" t="n">
+        <v>31.965</v>
+      </c>
+      <c r="F383" t="n">
+        <v>69.30012000000001</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>220</v>
+      </c>
+      <c r="B384" s="1" t="n">
+        <v>0.5549868181712962</v>
+      </c>
+      <c r="C384" t="n">
+        <v>96</v>
+      </c>
+      <c r="D384" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="E384" t="n">
+        <v>36.33</v>
+      </c>
+      <c r="F384" t="n">
+        <v>78.76344</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>222</v>
+      </c>
+      <c r="B385" s="1" t="n">
+        <v>0.5563759554745371</v>
+      </c>
+      <c r="C385" t="n">
+        <v>96</v>
+      </c>
+      <c r="D385" t="n">
+        <v>2.176</v>
+      </c>
+      <c r="E385" t="n">
+        <v>40.695</v>
+      </c>
+      <c r="F385" t="n">
+        <v>88.55232000000001</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>224</v>
+      </c>
+      <c r="B386" s="1" t="n">
+        <v>0.5577635185879629</v>
+      </c>
+      <c r="C386" t="n">
+        <v>96</v>
+      </c>
+      <c r="D386" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="E386" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="F386" t="n">
+        <v>80.64959999999999</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>225</v>
+      </c>
+      <c r="B387" s="1" t="n">
+        <v>0.5584571912037037</v>
+      </c>
+      <c r="C387" t="n">
+        <v>96</v>
+      </c>
+      <c r="D387" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="E387" t="n">
+        <v>35.82</v>
+      </c>
+      <c r="F387" t="n">
+        <v>77.80104</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>226</v>
+      </c>
+      <c r="B388" s="1" t="n">
+        <v>0.5591523549421296</v>
+      </c>
+      <c r="C388" t="n">
+        <v>96</v>
+      </c>
+      <c r="D388" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="E388" t="n">
+        <v>34.515</v>
+      </c>
+      <c r="F388" t="n">
+        <v>74.82852000000001</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>228</v>
+      </c>
+      <c r="B389" s="1" t="n">
+        <v>0.5605399909143518</v>
+      </c>
+      <c r="C389" t="n">
+        <v>96</v>
+      </c>
+      <c r="D389" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="E389" t="n">
+        <v>38.52</v>
+      </c>
+      <c r="F389" t="n">
+        <v>83.66544</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>229</v>
+      </c>
+      <c r="B390" s="1" t="n">
+        <v>0.5612346448958333</v>
+      </c>
+      <c r="C390" t="n">
+        <v>96</v>
+      </c>
+      <c r="D390" t="n">
+        <v>2.176</v>
+      </c>
+      <c r="E390" t="n">
+        <v>43.35</v>
+      </c>
+      <c r="F390" t="n">
+        <v>94.32960000000001</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>231</v>
+      </c>
+      <c r="B391" s="1" t="n">
+        <v>0.5626238655671296</v>
+      </c>
+      <c r="C391" t="n">
+        <v>96</v>
+      </c>
+      <c r="D391" t="n">
+        <v>2.176</v>
+      </c>
+      <c r="E391" t="n">
+        <v>49.005</v>
+      </c>
+      <c r="F391" t="n">
+        <v>106.63488</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>233</v>
+      </c>
+      <c r="B392" s="1" t="n">
+        <v>0.5640095529282407</v>
+      </c>
+      <c r="C392" t="n">
+        <v>96</v>
+      </c>
+      <c r="D392" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E392" t="n">
+        <v>49.26</v>
+      </c>
+      <c r="F392" t="n">
+        <v>107.3868</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>234</v>
+      </c>
+      <c r="B393" s="1" t="n">
+        <v>0.5647053387962964</v>
+      </c>
+      <c r="C393" t="n">
+        <v>96</v>
+      </c>
+      <c r="D393" t="n">
+        <v>2.176</v>
+      </c>
+      <c r="E393" t="n">
+        <v>43.065</v>
+      </c>
+      <c r="F393" t="n">
+        <v>93.70944</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>235</v>
+      </c>
+      <c r="B394" s="1" t="n">
+        <v>0.5653988387731481</v>
+      </c>
+      <c r="C394" t="n">
+        <v>96</v>
+      </c>
+      <c r="D394" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="E394" t="n">
+        <v>40.905</v>
+      </c>
+      <c r="F394" t="n">
+        <v>88.84566000000001</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>239</v>
+      </c>
+      <c r="B395" s="1" t="n">
+        <v>0.5681748319791666</v>
+      </c>
+      <c r="C395" t="n">
+        <v>96</v>
+      </c>
+      <c r="D395" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E395" t="n">
+        <v>51.06</v>
+      </c>
+      <c r="F395" t="n">
+        <v>111.3108</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>240</v>
+      </c>
+      <c r="B396" s="1" t="n">
+        <v>0.5688694969675926</v>
+      </c>
+      <c r="C396" t="n">
+        <v>96</v>
+      </c>
+      <c r="D396" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="E396" t="n">
+        <v>48.63</v>
+      </c>
+      <c r="F396" t="n">
+        <v>106.40244</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>241</v>
+      </c>
+      <c r="B397" s="1" t="n">
+        <v>0.5695675670486111</v>
+      </c>
+      <c r="C397" t="n">
+        <v>96</v>
+      </c>
+      <c r="D397" t="n">
+        <v>2.176</v>
+      </c>
+      <c r="E397" t="n">
+        <v>53.025</v>
+      </c>
+      <c r="F397" t="n">
+        <v>115.3824</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>242</v>
+      </c>
+      <c r="B398" s="1" t="n">
+        <v>0.5702572331944444</v>
+      </c>
+      <c r="C398" t="n">
+        <v>96</v>
+      </c>
+      <c r="D398" t="n">
+        <v>2.204</v>
+      </c>
+      <c r="E398" t="n">
+        <v>58.275</v>
+      </c>
+      <c r="F398" t="n">
+        <v>128.4381</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>243</v>
+      </c>
+      <c r="B399" s="1" t="n">
+        <v>0.5709509886689814</v>
+      </c>
+      <c r="C399" t="n">
+        <v>96</v>
+      </c>
+      <c r="D399" t="n">
+        <v>2.196</v>
+      </c>
+      <c r="E399" t="n">
+        <v>58.53</v>
+      </c>
+      <c r="F399" t="n">
+        <v>128.53188</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>244</v>
+      </c>
+      <c r="B400" s="1" t="n">
+        <v>0.571645008287037</v>
+      </c>
+      <c r="C400" t="n">
+        <v>96</v>
+      </c>
+      <c r="D400" t="n">
+        <v>2.192</v>
+      </c>
+      <c r="E400" t="n">
+        <v>61.635</v>
+      </c>
+      <c r="F400" t="n">
+        <v>135.10392</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>245</v>
+      </c>
+      <c r="B401" s="1" t="n">
+        <v>0.5723446601157407</v>
+      </c>
+      <c r="C401" t="n">
+        <v>96</v>
+      </c>
+      <c r="D401" t="n">
+        <v>2.192</v>
+      </c>
+      <c r="E401" t="n">
+        <v>54</v>
+      </c>
+      <c r="F401" t="n">
+        <v>118.368</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>246</v>
+      </c>
+      <c r="B402" s="1" t="n">
+        <v>0.5730347778703704</v>
+      </c>
+      <c r="C402" t="n">
+        <v>96</v>
+      </c>
+      <c r="D402" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E402" t="n">
+        <v>48</v>
+      </c>
+      <c r="F402" t="n">
+        <v>104.64</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>249</v>
+      </c>
+      <c r="B403" s="1" t="n">
+        <v>0.5751175837384259</v>
+      </c>
+      <c r="C403" t="n">
+        <v>96</v>
+      </c>
+      <c r="D403" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="E403" t="n">
+        <v>41.325</v>
+      </c>
+      <c r="F403" t="n">
+        <v>89.75789999999999</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>250</v>
+      </c>
+      <c r="B404" s="1" t="n">
+        <v>0.5758102284837963</v>
+      </c>
+      <c r="C404" t="n">
+        <v>96</v>
+      </c>
+      <c r="D404" t="n">
+        <v>2.176</v>
+      </c>
+      <c r="E404" t="n">
+        <v>40.305</v>
+      </c>
+      <c r="F404" t="n">
+        <v>87.70368000000001</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>251</v>
+      </c>
+      <c r="B405" s="1" t="n">
+        <v>0.5765037191087963</v>
+      </c>
+      <c r="C405" t="n">
+        <v>96</v>
+      </c>
+      <c r="D405" t="n">
+        <v>2.176</v>
+      </c>
+      <c r="E405" t="n">
+        <v>43.335</v>
+      </c>
+      <c r="F405" t="n">
+        <v>94.29696000000001</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>0</v>
+      </c>
+      <c r="B406" s="1" t="n">
+        <v>0.579282448587963</v>
+      </c>
+      <c r="C406" t="n">
+        <v>96</v>
+      </c>
+      <c r="D406" t="n">
+        <v>2.192</v>
+      </c>
+      <c r="E406" t="n">
+        <v>71.52</v>
+      </c>
+      <c r="F406" t="n">
+        <v>156.77184</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>4</v>
+      </c>
+      <c r="B407" s="1" t="n">
+        <v>0.582056721712963</v>
+      </c>
+      <c r="C407" t="n">
+        <v>96</v>
+      </c>
+      <c r="D407" t="n">
+        <v>2.196</v>
+      </c>
+      <c r="E407" t="n">
+        <v>62.445</v>
+      </c>
+      <c r="F407" t="n">
+        <v>137.12922</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>5</v>
+      </c>
+      <c r="B408" s="1" t="n">
+        <v>0.5827518717708333</v>
+      </c>
+      <c r="C408" t="n">
+        <v>96</v>
+      </c>
+      <c r="D408" t="n">
+        <v>2.204</v>
+      </c>
+      <c r="E408" t="n">
+        <v>70.98</v>
+      </c>
+      <c r="F408" t="n">
+        <v>156.43992</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>6</v>
+      </c>
+      <c r="B409" s="1" t="n">
+        <v>0.5834465490277778</v>
+      </c>
+      <c r="C409" t="n">
+        <v>96</v>
+      </c>
+      <c r="D409" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E409" t="n">
+        <v>69.23999999999999</v>
+      </c>
+      <c r="F409" t="n">
+        <v>152.328</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>7</v>
+      </c>
+      <c r="B410" s="1" t="n">
+        <v>0.5841398400347223</v>
+      </c>
+      <c r="C410" t="n">
+        <v>96</v>
+      </c>
+      <c r="D410" t="n">
+        <v>2.192</v>
+      </c>
+      <c r="E410" t="n">
+        <v>67.995</v>
+      </c>
+      <c r="F410" t="n">
+        <v>149.04504</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>8</v>
+      </c>
+      <c r="B411" s="1" t="n">
+        <v>0.5848342964699074</v>
+      </c>
+      <c r="C411" t="n">
+        <v>96</v>
+      </c>
+      <c r="D411" t="n">
+        <v>2.184</v>
+      </c>
+      <c r="E411" t="n">
+        <v>66.09</v>
+      </c>
+      <c r="F411" t="n">
+        <v>144.34056</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>10</v>
+      </c>
+      <c r="B412" s="1" t="n">
+        <v>0.586224701087963</v>
+      </c>
+      <c r="C412" t="n">
+        <v>96</v>
+      </c>
+      <c r="D412" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="E412" t="n">
+        <v>58.845</v>
+      </c>
+      <c r="F412" t="n">
+        <v>128.75286</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>11</v>
+      </c>
+      <c r="B413" s="1" t="n">
+        <v>0.5869157755671296</v>
+      </c>
+      <c r="C413" t="n">
+        <v>96</v>
+      </c>
+      <c r="D413" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="E413" t="n">
+        <v>70.86</v>
+      </c>
+      <c r="F413" t="n">
+        <v>155.04168</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>12</v>
+      </c>
+      <c r="B414" s="1" t="n">
+        <v>0.587610289212963</v>
+      </c>
+      <c r="C414" t="n">
+        <v>96</v>
+      </c>
+      <c r="D414" t="n">
+        <v>2.208</v>
+      </c>
+      <c r="E414" t="n">
+        <v>80.81999999999999</v>
+      </c>
+      <c r="F414" t="n">
+        <v>178.45056</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>14</v>
+      </c>
+      <c r="B415" s="1" t="n">
+        <v>0.5889977955902778</v>
+      </c>
+      <c r="C415" t="n">
+        <v>96</v>
+      </c>
+      <c r="D415" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E415" t="n">
+        <v>74.08499999999999</v>
+      </c>
+      <c r="F415" t="n">
+        <v>162.987</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>19</v>
+      </c>
+      <c r="B416" s="1" t="n">
+        <v>0.5924677236805556</v>
+      </c>
+      <c r="C416" t="n">
+        <v>96</v>
+      </c>
+      <c r="D416" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="E416" t="n">
+        <v>58.305</v>
+      </c>
+      <c r="F416" t="n">
+        <v>127.57134</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>20</v>
+      </c>
+      <c r="B417" s="1" t="n">
+        <v>0.5931653661458333</v>
+      </c>
+      <c r="C417" t="n">
+        <v>96</v>
+      </c>
+      <c r="D417" t="n">
+        <v>2.216</v>
+      </c>
+      <c r="E417" t="n">
+        <v>49.725</v>
+      </c>
+      <c r="F417" t="n">
+        <v>110.1906</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>22</v>
+      </c>
+      <c r="B418" s="1" t="n">
+        <v>0.5945523303356481</v>
+      </c>
+      <c r="C418" t="n">
+        <v>96</v>
+      </c>
+      <c r="D418" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="E418" t="n">
+        <v>39.48</v>
+      </c>
+      <c r="F418" t="n">
+        <v>85.75055999999999</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>23</v>
+      </c>
+      <c r="B419" s="1" t="n">
+        <v>0.5952457128356482</v>
+      </c>
+      <c r="C419" t="n">
+        <v>96</v>
+      </c>
+      <c r="D419" t="n">
+        <v>2.176</v>
+      </c>
+      <c r="E419" t="n">
+        <v>48.48</v>
+      </c>
+      <c r="F419" t="n">
+        <v>105.49248</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>24</v>
+      </c>
+      <c r="B420" s="1" t="n">
+        <v>0.5959399837962963</v>
+      </c>
+      <c r="C420" t="n">
+        <v>96</v>
+      </c>
+      <c r="D420" t="n">
+        <v>2.192</v>
+      </c>
+      <c r="E420" t="n">
+        <v>61.185</v>
+      </c>
+      <c r="F420" t="n">
+        <v>134.11752</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>25</v>
+      </c>
+      <c r="B421" s="1" t="n">
+        <v>0.5966352153819444</v>
+      </c>
+      <c r="C421" t="n">
+        <v>96</v>
+      </c>
+      <c r="D421" t="n">
+        <v>2.176</v>
+      </c>
+      <c r="E421" t="n">
+        <v>60.12</v>
+      </c>
+      <c r="F421" t="n">
+        <v>130.82112</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>26</v>
+      </c>
+      <c r="B422" s="1" t="n">
+        <v>0.5973294408333333</v>
+      </c>
+      <c r="C422" t="n">
+        <v>96</v>
+      </c>
+      <c r="D422" t="n">
+        <v>2.176</v>
+      </c>
+      <c r="E422" t="n">
+        <v>53.76</v>
+      </c>
+      <c r="F422" t="n">
+        <v>116.98176</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>28</v>
+      </c>
+      <c r="B423" s="1" t="n">
+        <v>0.5987158599537037</v>
+      </c>
+      <c r="C423" t="n">
+        <v>96</v>
+      </c>
+      <c r="D423" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="E423" t="n">
+        <v>51.23999999999999</v>
+      </c>
+      <c r="F423" t="n">
+        <v>111.29328</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>29</v>
+      </c>
+      <c r="B424" s="1" t="n">
+        <v>0.5994104193518519</v>
+      </c>
+      <c r="C424" t="n">
+        <v>96</v>
+      </c>
+      <c r="D424" t="n">
+        <v>2.204</v>
+      </c>
+      <c r="E424" t="n">
+        <v>53.565</v>
+      </c>
+      <c r="F424" t="n">
+        <v>118.05726</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>31</v>
+      </c>
+      <c r="B425" s="1" t="n">
+        <v>0.6007973817129629</v>
+      </c>
+      <c r="C425" t="n">
+        <v>96</v>
+      </c>
+      <c r="D425" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="E425" t="n">
+        <v>44.19</v>
+      </c>
+      <c r="F425" t="n">
+        <v>95.80392000000001</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>33</v>
+      </c>
+      <c r="B426" s="1" t="n">
+        <v>0.6021860310069445</v>
+      </c>
+      <c r="C426" t="n">
+        <v>96</v>
+      </c>
+      <c r="D426" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E426" t="n">
+        <v>52.275</v>
+      </c>
+      <c r="F426" t="n">
+        <v>113.9595</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>34</v>
+      </c>
+      <c r="B427" s="1" t="n">
+        <v>0.6028805326157408</v>
+      </c>
+      <c r="C427" t="n">
+        <v>96</v>
+      </c>
+      <c r="D427" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="E427" t="n">
+        <v>70.515</v>
+      </c>
+      <c r="F427" t="n">
+        <v>154.28682</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>36</v>
+      </c>
+      <c r="B428" s="1" t="n">
+        <v>0.6042686840856482</v>
+      </c>
+      <c r="C428" t="n">
+        <v>96</v>
+      </c>
+      <c r="D428" t="n">
+        <v>2.224</v>
+      </c>
+      <c r="E428" t="n">
+        <v>96.69</v>
+      </c>
+      <c r="F428" t="n">
+        <v>215.03856</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>37</v>
+      </c>
+      <c r="B429" s="1" t="n">
+        <v>0.6049628977893519</v>
+      </c>
+      <c r="C429" t="n">
+        <v>96</v>
+      </c>
+      <c r="D429" t="n">
+        <v>2.212</v>
+      </c>
+      <c r="E429" t="n">
+        <v>85.395</v>
+      </c>
+      <c r="F429" t="n">
+        <v>188.89374</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>45</v>
+      </c>
+      <c r="B430" s="1" t="n">
+        <v>0.610516852199074</v>
+      </c>
+      <c r="C430" t="n">
+        <v>96</v>
+      </c>
+      <c r="D430" t="n">
+        <v>2.196</v>
+      </c>
+      <c r="E430" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="F430" t="n">
+        <v>148.23</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>46</v>
+      </c>
+      <c r="B431" s="1" t="n">
+        <v>0.6112137215509259</v>
+      </c>
+      <c r="C431" t="n">
+        <v>96</v>
+      </c>
+      <c r="D431" t="n">
+        <v>2.192</v>
+      </c>
+      <c r="E431" t="n">
+        <v>73.36499999999999</v>
+      </c>
+      <c r="F431" t="n">
+        <v>160.81608</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>47</v>
+      </c>
+      <c r="B432" s="1" t="n">
+        <v>0.6119058814814815</v>
+      </c>
+      <c r="C432" t="n">
+        <v>96</v>
+      </c>
+      <c r="D432" t="n">
+        <v>2.208</v>
+      </c>
+      <c r="E432" t="n">
+        <v>86.175</v>
+      </c>
+      <c r="F432" t="n">
+        <v>190.2744</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>48</v>
+      </c>
+      <c r="B433" s="1" t="n">
+        <v>0.6125981091898148</v>
+      </c>
+      <c r="C433" t="n">
+        <v>96</v>
+      </c>
+      <c r="D433" t="n">
+        <v>2.212</v>
+      </c>
+      <c r="E433" t="n">
+        <v>94.92</v>
+      </c>
+      <c r="F433" t="n">
+        <v>209.96304</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>49</v>
+      </c>
+      <c r="B434" s="1" t="n">
+        <v>0.6132962584606482</v>
+      </c>
+      <c r="C434" t="n">
+        <v>96</v>
+      </c>
+      <c r="D434" t="n">
+        <v>2.212</v>
+      </c>
+      <c r="E434" t="n">
+        <v>94.005</v>
+      </c>
+      <c r="F434" t="n">
+        <v>207.93906</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>51</v>
+      </c>
+      <c r="B435" s="1" t="n">
+        <v>0.6146794438078703</v>
+      </c>
+      <c r="C435" t="n">
+        <v>96</v>
+      </c>
+      <c r="D435" t="n">
+        <v>2.208</v>
+      </c>
+      <c r="E435" t="n">
+        <v>82.61999999999999</v>
+      </c>
+      <c r="F435" t="n">
+        <v>182.42496</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>54</v>
+      </c>
+      <c r="B436" s="1" t="n">
+        <v>0.6167622783796296</v>
+      </c>
+      <c r="C436" t="n">
+        <v>96</v>
+      </c>
+      <c r="D436" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E436" t="n">
+        <v>55.575</v>
+      </c>
+      <c r="F436" t="n">
+        <v>121.1535</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>55</v>
+      </c>
+      <c r="B437" s="1" t="n">
+        <v>0.6174568612268518</v>
+      </c>
+      <c r="C437" t="n">
+        <v>96</v>
+      </c>
+      <c r="D437" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="E437" t="n">
+        <v>54.675</v>
+      </c>
+      <c r="F437" t="n">
+        <v>118.098</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>58</v>
+      </c>
+      <c r="B438" s="1" t="n">
+        <v>0.6195423542476852</v>
+      </c>
+      <c r="C438" t="n">
+        <v>96</v>
+      </c>
+      <c r="D438" t="n">
+        <v>2.176</v>
+      </c>
+      <c r="E438" t="n">
+        <v>49.71</v>
+      </c>
+      <c r="F438" t="n">
+        <v>108.16896</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>61</v>
+      </c>
+      <c r="B439" s="1" t="n">
+        <v>0.6216216852199073</v>
+      </c>
+      <c r="C439" t="n">
+        <v>96</v>
+      </c>
+      <c r="D439" t="n">
+        <v>2.204</v>
+      </c>
+      <c r="E439" t="n">
+        <v>74.58</v>
+      </c>
+      <c r="F439" t="n">
+        <v>164.37432</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>64</v>
+      </c>
+      <c r="B440" s="1" t="n">
+        <v>0.6237037599305556</v>
+      </c>
+      <c r="C440" t="n">
+        <v>96</v>
+      </c>
+      <c r="D440" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="E440" t="n">
+        <v>57.735</v>
+      </c>
+      <c r="F440" t="n">
+        <v>125.16948</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>67</v>
+      </c>
+      <c r="B441" s="1" t="n">
+        <v>0.6257867584722222</v>
+      </c>
+      <c r="C441" t="n">
+        <v>96</v>
+      </c>
+      <c r="D441" t="n">
+        <v>2.196</v>
+      </c>
+      <c r="E441" t="n">
+        <v>64.845</v>
+      </c>
+      <c r="F441" t="n">
+        <v>142.39962</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>70</v>
+      </c>
+      <c r="B442" s="1" t="n">
+        <v>0.6278692353935186</v>
+      </c>
+      <c r="C442" t="n">
+        <v>96</v>
+      </c>
+      <c r="D442" t="n">
+        <v>2.192</v>
+      </c>
+      <c r="E442" t="n">
+        <v>59.655</v>
+      </c>
+      <c r="F442" t="n">
+        <v>130.76376</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>71</v>
+      </c>
+      <c r="B443" s="1" t="n">
+        <v>0.628564186886574</v>
+      </c>
+      <c r="C443" t="n">
+        <v>96</v>
+      </c>
+      <c r="D443" t="n">
+        <v>2.192</v>
+      </c>
+      <c r="E443" t="n">
+        <v>62.73</v>
+      </c>
+      <c r="F443" t="n">
+        <v>137.50416</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>72</v>
+      </c>
+      <c r="B444" s="1" t="n">
+        <v>0.6292566807870371</v>
+      </c>
+      <c r="C444" t="n">
+        <v>96</v>
+      </c>
+      <c r="D444" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="E444" t="n">
+        <v>65.565</v>
+      </c>
+      <c r="F444" t="n">
+        <v>143.45622</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>75</v>
+      </c>
+      <c r="B445" s="1" t="n">
+        <v>0.6313403507986111</v>
+      </c>
+      <c r="C445" t="n">
+        <v>97</v>
+      </c>
+      <c r="D445" t="n">
+        <v>2.248</v>
+      </c>
+      <c r="E445" t="n">
+        <v>133.2</v>
+      </c>
+      <c r="F445" t="n">
+        <v>299.4336</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>77</v>
+      </c>
+      <c r="B446" s="1" t="n">
+        <v>0.6327264447106482</v>
+      </c>
+      <c r="C446" t="n">
+        <v>96</v>
+      </c>
+      <c r="D446" t="n">
+        <v>2.212</v>
+      </c>
+      <c r="E446" t="n">
+        <v>89.67</v>
+      </c>
+      <c r="F446" t="n">
+        <v>198.35004</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>78</v>
+      </c>
+      <c r="B447" s="1" t="n">
+        <v>0.6334220421064815</v>
+      </c>
+      <c r="C447" t="n">
+        <v>97</v>
+      </c>
+      <c r="D447" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E447" t="n">
+        <v>56.91</v>
+      </c>
+      <c r="F447" t="n">
+        <v>124.0638</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>82</v>
+      </c>
+      <c r="B448" s="1" t="n">
+        <v>0.6361982747569445</v>
+      </c>
+      <c r="C448" t="n">
+        <v>96</v>
+      </c>
+      <c r="D448" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="E448" t="n">
+        <v>43.695</v>
+      </c>
+      <c r="F448" t="n">
+        <v>94.90554</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>84</v>
+      </c>
+      <c r="B449" s="1" t="n">
+        <v>0.6375870137268519</v>
+      </c>
+      <c r="C449" t="n">
+        <v>96</v>
+      </c>
+      <c r="D449" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="E449" t="n">
+        <v>38.67</v>
+      </c>
+      <c r="F449" t="n">
+        <v>83.99124</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>85</v>
+      </c>
+      <c r="B450" s="1" t="n">
+        <v>0.6382809152199074</v>
+      </c>
+      <c r="C450" t="n">
+        <v>96</v>
+      </c>
+      <c r="D450" t="n">
+        <v>2.164</v>
+      </c>
+      <c r="E450" t="n">
+        <v>33.975</v>
+      </c>
+      <c r="F450" t="n">
+        <v>73.5219</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>86</v>
+      </c>
+      <c r="B451" s="1" t="n">
+        <v>0.6389731657060186</v>
+      </c>
+      <c r="C451" t="n">
+        <v>96</v>
+      </c>
+      <c r="D451" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E451" t="n">
+        <v>31.605</v>
+      </c>
+      <c r="F451" t="n">
+        <v>69.53100000000001</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>87</v>
+      </c>
+      <c r="B452" s="1" t="n">
+        <v>0.6396678767245371</v>
+      </c>
+      <c r="C452" t="n">
+        <v>96</v>
+      </c>
+      <c r="D452" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="E452" t="n">
+        <v>31.035</v>
+      </c>
+      <c r="F452" t="n">
+        <v>67.40802000000001</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>88</v>
+      </c>
+      <c r="B453" s="1" t="n">
+        <v>0.6403654482638889</v>
+      </c>
+      <c r="C453" t="n">
+        <v>96</v>
+      </c>
+      <c r="D453" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="E453" t="n">
+        <v>30.795</v>
+      </c>
+      <c r="F453" t="n">
+        <v>66.88674</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>90</v>
+      </c>
+      <c r="B454" s="1" t="n">
+        <v>0.6417492802546296</v>
+      </c>
+      <c r="C454" t="n">
+        <v>96</v>
+      </c>
+      <c r="D454" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="E454" t="n">
+        <v>30.84</v>
+      </c>
+      <c r="F454" t="n">
+        <v>66.86112</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>91</v>
+      </c>
+      <c r="B455" s="1" t="n">
+        <v>0.6424442809953703</v>
+      </c>
+      <c r="C455" t="n">
+        <v>96</v>
+      </c>
+      <c r="D455" t="n">
+        <v>2.164</v>
+      </c>
+      <c r="E455" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="F455" t="n">
+        <v>70.11360000000001</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>92</v>
+      </c>
+      <c r="B456" s="1" t="n">
+        <v>0.6431382621643519</v>
+      </c>
+      <c r="C456" t="n">
+        <v>96</v>
+      </c>
+      <c r="D456" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="E456" t="n">
+        <v>34.41</v>
+      </c>
+      <c r="F456" t="n">
+        <v>74.73851999999999</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>93</v>
+      </c>
+      <c r="B457" s="1" t="n">
+        <v>0.6438326836226852</v>
+      </c>
+      <c r="C457" t="n">
+        <v>96</v>
+      </c>
+      <c r="D457" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="E457" t="n">
+        <v>36.93</v>
+      </c>
+      <c r="F457" t="n">
+        <v>80.06424</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>94</v>
+      </c>
+      <c r="B458" s="1" t="n">
+        <v>0.6445273695486111</v>
+      </c>
+      <c r="C458" t="n">
+        <v>96</v>
+      </c>
+      <c r="D458" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="E458" t="n">
+        <v>40.74</v>
+      </c>
+      <c r="F458" t="n">
+        <v>88.32432000000001</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>95</v>
+      </c>
+      <c r="B459" s="1" t="n">
+        <v>0.6452204275694444</v>
+      </c>
+      <c r="C459" t="n">
+        <v>96</v>
+      </c>
+      <c r="D459" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="E459" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="F459" t="n">
+        <v>99.1164</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>97</v>
+      </c>
+      <c r="B460" s="1" t="n">
+        <v>0.6466084732291667</v>
+      </c>
+      <c r="C460" t="n">
+        <v>96</v>
+      </c>
+      <c r="D460" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="E460" t="n">
+        <v>50.925</v>
+      </c>
+      <c r="F460" t="n">
+        <v>111.4239</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>99</v>
+      </c>
+      <c r="B461" s="1" t="n">
+        <v>0.6479969907638889</v>
+      </c>
+      <c r="C461" t="n">
+        <v>96</v>
+      </c>
+      <c r="D461" t="n">
+        <v>2.196</v>
+      </c>
+      <c r="E461" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="F461" t="n">
+        <v>174.582</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>101</v>
+      </c>
+      <c r="B462" s="1" t="n">
+        <v>0.6493884184953703</v>
+      </c>
+      <c r="C462" t="n">
+        <v>97</v>
+      </c>
+      <c r="D462" t="n">
+        <v>2.212</v>
+      </c>
+      <c r="E462" t="n">
+        <v>96.315</v>
+      </c>
+      <c r="F462" t="n">
+        <v>213.04878</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>103</v>
+      </c>
+      <c r="B463" s="1" t="n">
+        <v>0.6507729902546296</v>
+      </c>
+      <c r="C463" t="n">
+        <v>96</v>
+      </c>
+      <c r="D463" t="n">
+        <v>2.252</v>
+      </c>
+      <c r="E463" t="n">
+        <v>132.165</v>
+      </c>
+      <c r="F463" t="n">
+        <v>297.63558</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>104</v>
+      </c>
+      <c r="B464" s="1" t="n">
+        <v>0.6514670188888889</v>
+      </c>
+      <c r="C464" t="n">
+        <v>97</v>
+      </c>
+      <c r="D464" t="n">
+        <v>2.248</v>
+      </c>
+      <c r="E464" t="n">
+        <v>137.28</v>
+      </c>
+      <c r="F464" t="n">
+        <v>308.6054400000001</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>105</v>
+      </c>
+      <c r="B465" s="1" t="n">
+        <v>0.6521617510416666</v>
+      </c>
+      <c r="C465" t="n">
+        <v>97</v>
+      </c>
+      <c r="D465" t="n">
+        <v>2.272</v>
+      </c>
+      <c r="E465" t="n">
+        <v>160.155</v>
+      </c>
+      <c r="F465" t="n">
+        <v>363.8721600000001</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>106</v>
+      </c>
+      <c r="B466" s="1" t="n">
+        <v>0.6528573023611112</v>
+      </c>
+      <c r="C466" t="n">
+        <v>96</v>
+      </c>
+      <c r="D466" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="E466" t="n">
+        <v>152.7</v>
+      </c>
+      <c r="F466" t="n">
+        <v>345.102</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>107</v>
+      </c>
+      <c r="B467" s="1" t="n">
+        <v>0.6535488384490741</v>
+      </c>
+      <c r="C467" t="n">
+        <v>97</v>
+      </c>
+      <c r="D467" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="E467" t="n">
+        <v>142.53</v>
+      </c>
+      <c r="F467" t="n">
+        <v>321.54768</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>108</v>
+      </c>
+      <c r="B468" s="1" t="n">
+        <v>0.6542435935763888</v>
+      </c>
+      <c r="C468" t="n">
+        <v>96</v>
+      </c>
+      <c r="D468" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="E468" t="n">
+        <v>124.95</v>
+      </c>
+      <c r="F468" t="n">
+        <v>279.888</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>109</v>
+      </c>
+      <c r="B469" s="1" t="n">
+        <v>0.654939110162037</v>
+      </c>
+      <c r="C469" t="n">
+        <v>97</v>
+      </c>
+      <c r="D469" t="n">
+        <v>2.212</v>
+      </c>
+      <c r="E469" t="n">
+        <v>88.25999999999999</v>
+      </c>
+      <c r="F469" t="n">
+        <v>195.23112</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>112</v>
+      </c>
+      <c r="B470" s="1" t="n">
+        <v>0.6570229718402777</v>
+      </c>
+      <c r="C470" t="n">
+        <v>97</v>
+      </c>
+      <c r="D470" t="n">
+        <v>2.248</v>
+      </c>
+      <c r="E470" t="n">
+        <v>136.665</v>
+      </c>
+      <c r="F470" t="n">
+        <v>307.22292</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>116</v>
+      </c>
+      <c r="B471" s="1" t="n">
+        <v>0.6597959019791667</v>
+      </c>
+      <c r="C471" t="n">
+        <v>97</v>
+      </c>
+      <c r="D471" t="n">
+        <v>2.224</v>
+      </c>
+      <c r="E471" t="n">
+        <v>105.555</v>
+      </c>
+      <c r="F471" t="n">
+        <v>234.75432</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>118</v>
+      </c>
+      <c r="B472" s="1" t="n">
+        <v>0.6611880101157408</v>
+      </c>
+      <c r="C472" t="n">
+        <v>97</v>
+      </c>
+      <c r="D472" t="n">
+        <v>2.176</v>
+      </c>
+      <c r="E472" t="n">
+        <v>51.81</v>
+      </c>
+      <c r="F472" t="n">
+        <v>112.73856</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>119</v>
+      </c>
+      <c r="B473" s="1" t="n">
+        <v>0.6618799618055555</v>
+      </c>
+      <c r="C473" t="n">
+        <v>97</v>
+      </c>
+      <c r="D473" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="E473" t="n">
+        <v>41.805</v>
+      </c>
+      <c r="F473" t="n">
+        <v>90.63324</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>121</v>
+      </c>
+      <c r="B474" s="1" t="n">
+        <v>0.6632670368634259</v>
+      </c>
+      <c r="C474" t="n">
+        <v>97</v>
+      </c>
+      <c r="D474" t="n">
+        <v>2.192</v>
+      </c>
+      <c r="E474" t="n">
+        <v>60.33</v>
+      </c>
+      <c r="F474" t="n">
+        <v>132.24336</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>123</v>
+      </c>
+      <c r="B475" s="1" t="n">
+        <v>0.6646545155324074</v>
+      </c>
+      <c r="C475" t="n">
+        <v>97</v>
+      </c>
+      <c r="D475" t="n">
+        <v>2.204</v>
+      </c>
+      <c r="E475" t="n">
+        <v>82.30499999999999</v>
+      </c>
+      <c r="F475" t="n">
+        <v>181.40022</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>124</v>
+      </c>
+      <c r="B476" s="1" t="n">
+        <v>0.6653499172106482</v>
+      </c>
+      <c r="C476" t="n">
+        <v>97</v>
+      </c>
+      <c r="D476" t="n">
+        <v>2.232</v>
+      </c>
+      <c r="E476" t="n">
+        <v>120.75</v>
+      </c>
+      <c r="F476" t="n">
+        <v>269.514</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>129</v>
+      </c>
+      <c r="B477" s="1" t="n">
+        <v>0.6688201164120371</v>
+      </c>
+      <c r="C477" t="n">
+        <v>97</v>
+      </c>
+      <c r="D477" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="E477" t="n">
+        <v>41.43</v>
+      </c>
+      <c r="F477" t="n">
+        <v>89.98596000000001</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>133</v>
+      </c>
+      <c r="B478" s="1" t="n">
+        <v>0.6715963223032407</v>
+      </c>
+      <c r="C478" t="n">
+        <v>96</v>
+      </c>
+      <c r="D478" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="E478" t="n">
+        <v>42.915</v>
+      </c>
+      <c r="F478" t="n">
+        <v>93.55470000000001</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>135</v>
+      </c>
+      <c r="B479" s="1" t="n">
+        <v>0.6729836052430556</v>
+      </c>
+      <c r="C479" t="n">
+        <v>97</v>
+      </c>
+      <c r="D479" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="E479" t="n">
+        <v>40.68</v>
+      </c>
+      <c r="F479" t="n">
+        <v>88.35696</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>140</v>
+      </c>
+      <c r="B480" s="1" t="n">
+        <v>0.6764547373611112</v>
+      </c>
+      <c r="C480" t="n">
+        <v>97</v>
+      </c>
+      <c r="D480" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="E480" t="n">
+        <v>26.07</v>
+      </c>
+      <c r="F480" t="n">
+        <v>56.51976000000001</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>141</v>
+      </c>
+      <c r="B481" s="1" t="n">
+        <v>0.67714968875</v>
+      </c>
+      <c r="C481" t="n">
+        <v>97</v>
+      </c>
+      <c r="D481" t="n">
+        <v>2.172</v>
+      </c>
+      <c r="E481" t="n">
+        <v>23.52</v>
+      </c>
+      <c r="F481" t="n">
+        <v>51.08544000000001</v>
       </c>
     </row>
   </sheetData>
